--- a/Data/2. 개인회원.xlsx
+++ b/Data/2. 개인회원.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\학교\3학년(4.5)(2023)\2학기\데이터베이스프로그래밍\과제\팀프로젝트\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고병철\Desktop\GitKraken\DatabaseProgrammingTeamProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C06CB6E-8557-49E3-8381-8681C4860013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D2CA4C-E3B0-4B26-B8A6-B7B52D300CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DCFF9F2-15FC-4C18-81A5-F7FD688D881C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="533">
   <si>
     <t>회원ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1471,6 +1471,410 @@
   </si>
   <si>
     <t>차장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minjilee94@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hojunpark81@daum.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wonderfuljiu@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seoyeonjung07@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyunwoo99@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miky0422@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minieehan93@daum.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>singingyelin89@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>donggunim55@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowergy91@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>julianlee88@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seryeon98@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jimink91@daum.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seunghyun86@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serene92@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>junwookang96@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lovelyhj22@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>songbird93@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minnie87@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunshine94@daum.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunnie96@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabypark85@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim90@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>haeun89@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seojin95@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jihokangster97@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soyulhan86@daum.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeejun91@daum.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dreamyhayoon81@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiny93@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gayeong99@daum.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minjae96@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimmy87@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yelin92@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mintychoi85@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiminkang90@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeuniehan98@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>woosong89@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoonserim95@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minnieshyoon91@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gayoung86@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mjpark92@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>juwon87@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elena94@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smilemintchoi88@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jminnie93@daum.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeeunhan99@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dreamysong@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunsera85@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seungmin99@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_eun.kim94@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_jun.lee92@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga_yeon.park89@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_eun.jung85@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha_yoon.choi02@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seo_jun.kang01@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_yeon.song96@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ye_jin.lim89@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seung_ho.hw@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_ji.kim03@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seo_yun.lee98@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jun_ho.park05@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ye_jin.jung96@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga_yoon.choi00@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_jae.kang01@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eun_seo.song95@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_ho.lim99@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji_yoon.hwang03@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha_jun.kim97@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga_yeon.lee03@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seo_jun.park01@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_eun.jung94@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha_jin.choi02@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seung_ho.kang01@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ye_jin.song98@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_seo.lim97@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yun_seo.hwang95@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seung_jun.kim02@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_hyun.lee97@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ye_seul.park99@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga_eun.jung04@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seo_a.choi04@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha_yoon.kang99@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_in.song93@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jun_ho.lim98@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seo_yun.hwang00@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_hyun.kim07@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_seo.lee95@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga_yeong.park08@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha_yul.jung01@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seung_min.choi04@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ye_jin.kang02@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_yun.song02@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seo_eun.lim94@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ye_jun.hwang03@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_ho.kim99@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seung_jun.lee02@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yun_seo.park06@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga_hyun.jung06@yahoo.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_in.choi07@nate.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1478,7 +1882,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0##\-####\-####"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,6 +1932,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1543,12 +1968,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1583,9 +2011,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1897,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468B34A-F573-43F2-83C7-0B79BC91E257}">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1910,16 +2354,17 @@
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.25" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.25" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1936,34 +2381,37 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1979,26 +2427,29 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <v>1</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>43835</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -2014,35 +2465,38 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <v>3</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>43695</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2000</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>90000000</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2058,35 +2512,38 @@
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>44250</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4000</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>46000000</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -2102,35 +2559,38 @@
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>5</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>43659</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6000</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>38000000</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2146,35 +2606,38 @@
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <v>5</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>44002</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>8000</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>24000000</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -2190,35 +2653,38 @@
       <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>43302</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>10000</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>40000000</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -2234,35 +2700,38 @@
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>3</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>43010</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>12000</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>24000000</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -2278,35 +2747,38 @@
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <v>3</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>44380</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>14000</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>35000000</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -2322,35 +2794,38 @@
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>43367</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>16000</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>41000000</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
@@ -2366,35 +2841,38 @@
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <v>5</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>43901</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>18000</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>30000000</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -2410,35 +2888,38 @@
       <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <v>1</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>43594</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>20000</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>65000000</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
@@ -2454,35 +2935,38 @@
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="9">
         <v>1</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>43527</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>22000</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>76000000</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
@@ -2498,35 +2982,38 @@
       <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <v>3</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>43096</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>24000</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>46000000</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
@@ -2542,35 +3029,38 @@
       <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
         <v>3</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>42987</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>26000</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>24000000</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
@@ -2586,35 +3076,38 @@
       <c r="E16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <v>3</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>43340</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>28000</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>32000000</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>64</v>
       </c>
@@ -2630,35 +3123,38 @@
       <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="9">
         <v>3</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <v>44198</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>30000</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>34000000</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -2674,35 +3170,38 @@
       <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="H18" s="9">
+      <c r="I18" s="9">
         <v>1</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>43075</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>32000</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>26000000</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
@@ -2718,35 +3217,38 @@
       <c r="E19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="9">
         <v>5</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>43940</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>34000</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>24000000</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>67</v>
       </c>
@@ -2762,35 +3264,38 @@
       <c r="E20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H20" s="9">
+      <c r="I20" s="9">
         <v>5</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>43510</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>36000</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>37000000</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>68</v>
       </c>
@@ -2806,35 +3311,38 @@
       <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="H21" s="9">
+      <c r="I21" s="9">
         <v>5</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>44187</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>38000</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>42000000</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
@@ -2850,35 +3358,38 @@
       <c r="E22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="H22" s="9">
+      <c r="I22" s="9">
         <v>1</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <v>43058</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>40000</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>38000000</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>70</v>
       </c>
@@ -2894,35 +3405,38 @@
       <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="H23" s="9">
+      <c r="I23" s="9">
         <v>3</v>
       </c>
-      <c r="I23" s="8">
+      <c r="J23" s="8">
         <v>44010</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>42000</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>36000000</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
@@ -2938,35 +3452,38 @@
       <c r="E24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="H24" s="9">
+      <c r="I24" s="9">
         <v>1</v>
       </c>
-      <c r="I24" s="8">
+      <c r="J24" s="8">
         <v>43123</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>44000</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>40000000</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>72</v>
       </c>
@@ -2982,35 +3499,38 @@
       <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="H25" s="9">
+      <c r="I25" s="9">
         <v>1</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J25" s="8">
         <v>43781</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>46000</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>35000000</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
@@ -3026,35 +3546,38 @@
       <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="H26" s="9">
+      <c r="I26" s="9">
         <v>3</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <v>42976</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>48000</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>35000000</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>74</v>
       </c>
@@ -3070,26 +3593,29 @@
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="H27" s="9">
+      <c r="I27" s="9">
         <v>3</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="8">
         <v>43179</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>50000</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>75</v>
       </c>
@@ -3105,26 +3631,29 @@
       <c r="E28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="H28" s="9">
+      <c r="I28" s="9">
         <v>3</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <v>44377</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>52000</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>76</v>
       </c>
@@ -3140,26 +3669,29 @@
       <c r="E29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="H29" s="9">
+      <c r="I29" s="9">
         <v>5</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="8">
         <v>43631</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>54000</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>77</v>
       </c>
@@ -3175,26 +3707,29 @@
       <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="H30" s="9">
+      <c r="I30" s="9">
         <v>5</v>
       </c>
-      <c r="I30" s="8">
+      <c r="J30" s="8">
         <v>44459</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>56000</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>78</v>
       </c>
@@ -3210,26 +3745,29 @@
       <c r="E31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="H31" s="9">
+      <c r="I31" s="9">
         <v>1</v>
       </c>
-      <c r="I31" s="8">
+      <c r="J31" s="8">
         <v>43383</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>58000</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>79</v>
       </c>
@@ -3245,26 +3783,29 @@
       <c r="E32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="H32" s="9">
+      <c r="I32" s="9">
         <v>3</v>
       </c>
-      <c r="I32" s="8">
+      <c r="J32" s="8">
         <v>42998</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>60000</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>80</v>
       </c>
@@ -3280,26 +3821,29 @@
       <c r="E33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="H33" s="9">
+      <c r="I33" s="9">
         <v>3</v>
       </c>
-      <c r="I33" s="8">
+      <c r="J33" s="8">
         <v>44057</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>62000</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>81</v>
       </c>
@@ -3315,26 +3859,29 @@
       <c r="E34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="H34" s="9">
+      <c r="I34" s="9">
         <v>1</v>
       </c>
-      <c r="I34" s="8">
+      <c r="J34" s="8">
         <v>43964</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>64000</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -3350,26 +3897,29 @@
       <c r="E35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="H35" s="9">
+      <c r="I35" s="9">
         <v>1</v>
       </c>
-      <c r="I35" s="8">
+      <c r="J35" s="8">
         <v>43515</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>66000</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>82</v>
       </c>
@@ -3385,26 +3935,29 @@
       <c r="E36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="H36" s="9">
+      <c r="I36" s="9">
         <v>1</v>
       </c>
-      <c r="I36" s="8">
+      <c r="J36" s="8">
         <v>43137</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>68000</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>83</v>
       </c>
@@ -3420,26 +3973,29 @@
       <c r="E37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="H37" s="9">
+      <c r="I37" s="9">
         <v>3</v>
       </c>
-      <c r="I37" s="8">
+      <c r="J37" s="8">
         <v>44119</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>70000</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>84</v>
       </c>
@@ -3455,26 +4011,29 @@
       <c r="E38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H38" s="9">
+      <c r="I38" s="9">
         <v>5</v>
       </c>
-      <c r="I38" s="8">
+      <c r="J38" s="8">
         <v>43673</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>72000</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>85</v>
       </c>
@@ -3490,26 +4049,29 @@
       <c r="E39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="H39" s="9">
+      <c r="I39" s="9">
         <v>5</v>
       </c>
-      <c r="I39" s="8">
+      <c r="J39" s="8">
         <v>43294</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>74000</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>86</v>
       </c>
@@ -3525,26 +4087,29 @@
       <c r="E40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="H40" s="9">
+      <c r="I40" s="9">
         <v>1</v>
       </c>
-      <c r="I40" s="8">
+      <c r="J40" s="8">
         <v>43915</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>76000</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>91</v>
       </c>
@@ -3560,26 +4125,29 @@
       <c r="E41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="H41" s="9">
+      <c r="I41" s="9">
         <v>3</v>
       </c>
-      <c r="I41" s="8">
+      <c r="J41" s="8">
         <v>43620</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>78000</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>87</v>
       </c>
@@ -3595,26 +4163,29 @@
       <c r="E42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="H42" s="9">
+      <c r="I42" s="9">
         <v>3</v>
       </c>
-      <c r="I42" s="8">
+      <c r="J42" s="8">
         <v>43017</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>80000</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>88</v>
       </c>
@@ -3630,26 +4201,29 @@
       <c r="E43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="H43" s="9">
+      <c r="I43" s="9">
         <v>1</v>
       </c>
-      <c r="I43" s="8">
+      <c r="J43" s="8">
         <v>43761</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>82000</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>89</v>
       </c>
@@ -3665,26 +4239,29 @@
       <c r="E44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="H44" s="9">
+      <c r="I44" s="9">
         <v>1</v>
       </c>
-      <c r="I44" s="8">
+      <c r="J44" s="8">
         <v>43129</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>84000</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>90</v>
       </c>
@@ -3700,26 +4277,29 @@
       <c r="E45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="H45" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="H45" s="9">
+      <c r="I45" s="9">
         <v>3</v>
       </c>
-      <c r="I45" s="8">
+      <c r="J45" s="8">
         <v>44030</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>86000</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>92</v>
       </c>
@@ -3735,26 +4315,29 @@
       <c r="E46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="H46" s="9">
+      <c r="I46" s="9">
         <v>5</v>
       </c>
-      <c r="I46" s="8">
+      <c r="J46" s="8">
         <v>43087</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>88000</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>93</v>
       </c>
@@ -3770,26 +4353,29 @@
       <c r="E47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="H47" s="9">
+      <c r="I47" s="9">
         <v>3</v>
       </c>
-      <c r="I47" s="8">
+      <c r="J47" s="8">
         <v>43772</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>90000</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>94</v>
       </c>
@@ -3805,26 +4391,29 @@
       <c r="E48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="H48" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="H48" s="9">
+      <c r="I48" s="9">
         <v>1</v>
       </c>
-      <c r="I48" s="8">
+      <c r="J48" s="8">
         <v>44284</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>92000</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>95</v>
       </c>
@@ -3840,26 +4429,29 @@
       <c r="E49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="H49" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="H49" s="9">
+      <c r="I49" s="9">
         <v>5</v>
       </c>
-      <c r="I49" s="8">
+      <c r="J49" s="8">
         <v>44257</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>94000</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>96</v>
       </c>
@@ -3875,35 +4467,38 @@
       <c r="E50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="H50" s="9">
+      <c r="I50" s="9">
         <v>3</v>
       </c>
-      <c r="I50" s="8">
+      <c r="J50" s="8">
         <v>43534</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>96000</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>30000000</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>52</v>
       </c>
@@ -3919,35 +4514,38 @@
       <c r="E51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="H51" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="H51" s="9">
+      <c r="I51" s="9">
         <v>1</v>
       </c>
-      <c r="I51" s="8">
+      <c r="J51" s="8">
         <v>44142</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>98000</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>110000000</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>191</v>
       </c>
@@ -3963,35 +4561,38 @@
       <c r="E52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="H52" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H52" s="9">
+      <c r="I52" s="9">
         <v>3</v>
       </c>
-      <c r="I52" s="8">
+      <c r="J52" s="8">
         <v>43314</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>100000</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>45000000</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>192</v>
       </c>
@@ -4007,35 +4608,38 @@
       <c r="E53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="H53" s="9">
+      <c r="I53" s="9">
         <v>3</v>
       </c>
-      <c r="I53" s="8">
+      <c r="J53" s="8">
         <v>43581</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>102000</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>24000000</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>193</v>
       </c>
@@ -4051,35 +4655,38 @@
       <c r="E54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="H54" s="9">
+      <c r="I54" s="9">
         <v>1</v>
       </c>
-      <c r="I54" s="8">
+      <c r="J54" s="8">
         <v>43240</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>104000</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54" s="11" t="s">
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>24000000</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>194</v>
       </c>
@@ -4095,35 +4702,38 @@
       <c r="E55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="H55" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="H55" s="9">
+      <c r="I55" s="9">
         <v>1</v>
       </c>
-      <c r="I55" s="8">
+      <c r="J55" s="8">
         <v>44444</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>106000</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>24000000</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>195</v>
       </c>
@@ -4139,35 +4749,38 @@
       <c r="E56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="H56" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="H56" s="9">
+      <c r="I56" s="9">
         <v>3</v>
       </c>
-      <c r="I56" s="8">
+      <c r="J56" s="8">
         <v>44172</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>108000</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>35000000</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>196</v>
       </c>
@@ -4183,35 +4796,38 @@
       <c r="E57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="H57" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="H57" s="9">
+      <c r="I57" s="9">
         <v>5</v>
       </c>
-      <c r="I57" s="8">
+      <c r="J57" s="8">
         <v>43626</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>110000</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>25000000</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>99</v>
       </c>
@@ -4227,35 +4843,38 @@
       <c r="E58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="H58" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="H58" s="9">
+      <c r="I58" s="9">
         <v>3</v>
       </c>
-      <c r="I58" s="8">
+      <c r="J58" s="8">
         <v>42958</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>112000</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58" s="11" t="s">
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>24000000</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>100</v>
       </c>
@@ -4271,35 +4890,38 @@
       <c r="E59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="H59" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="H59" s="9">
+      <c r="I59" s="9">
         <v>3</v>
       </c>
-      <c r="I59" s="8">
+      <c r="J59" s="8">
         <v>43146</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>114000</v>
       </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>32000000</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>138</v>
       </c>
@@ -4315,35 +4937,38 @@
       <c r="E60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="H60" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="H60" s="9">
+      <c r="I60" s="9">
         <v>5</v>
       </c>
-      <c r="I60" s="8">
+      <c r="J60" s="8">
         <v>43809</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>116000</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60" s="11" t="s">
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>33000000</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>139</v>
       </c>
@@ -4359,35 +4984,38 @@
       <c r="E61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="H61" s="9">
+      <c r="I61" s="9">
         <v>3</v>
       </c>
-      <c r="I61" s="8">
+      <c r="J61" s="8">
         <v>44343</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>118000</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61" s="11" t="s">
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>76000000</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>101</v>
       </c>
@@ -4403,35 +5031,38 @@
       <c r="E62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="H62" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="H62" s="9">
+      <c r="I62" s="9">
         <v>1</v>
       </c>
-      <c r="I62" s="8">
+      <c r="J62" s="8">
         <v>44334</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>120000</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62" s="11" t="s">
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>24000000</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>102</v>
       </c>
@@ -4447,35 +5078,38 @@
       <c r="E63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="H63" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="H63" s="9">
+      <c r="I63" s="9">
         <v>5</v>
       </c>
-      <c r="I63" s="8">
+      <c r="J63" s="8">
         <v>43090</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>122000</v>
       </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63" s="11" t="s">
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>26000000</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>103</v>
       </c>
@@ -4491,35 +5125,38 @@
       <c r="E64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="H64" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="H64" s="9">
+      <c r="I64" s="9">
         <v>5</v>
       </c>
-      <c r="I64" s="8">
+      <c r="J64" s="8">
         <v>43246</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>124000</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64" s="11" t="s">
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>73000000</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>104</v>
       </c>
@@ -4535,35 +5172,38 @@
       <c r="E65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="H65" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="H65" s="9">
+      <c r="I65" s="9">
         <v>3</v>
       </c>
-      <c r="I65" s="8">
+      <c r="J65" s="8">
         <v>44083</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>126000</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65" s="11" t="s">
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>44000000</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>105</v>
       </c>
@@ -4579,35 +5219,38 @@
       <c r="E66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="H66" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="H66" s="9">
+      <c r="I66" s="9">
         <v>1</v>
       </c>
-      <c r="I66" s="8">
+      <c r="J66" s="8">
         <v>43001</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>128000</v>
       </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66" s="11" t="s">
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>26000000</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>106</v>
       </c>
@@ -4623,35 +5266,38 @@
       <c r="E67" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="H67" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="H67" s="9">
+      <c r="I67" s="9">
         <v>3</v>
       </c>
-      <c r="I67" s="8">
+      <c r="J67" s="8">
         <v>43459</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>130000</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67" s="11" t="s">
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>35000000</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>107</v>
       </c>
@@ -4667,35 +5313,38 @@
       <c r="E68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="H68" s="9">
+      <c r="I68" s="9">
         <v>3</v>
       </c>
-      <c r="I68" s="8">
+      <c r="J68" s="8">
         <v>43570</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>132000</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68" s="11" t="s">
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>35000000</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>108</v>
       </c>
@@ -4711,35 +5360,38 @@
       <c r="E69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="H69" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="H69" s="9">
+      <c r="I69" s="9">
         <v>1</v>
       </c>
-      <c r="I69" s="8">
+      <c r="J69" s="8">
         <v>43032</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>134000</v>
       </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69" s="11" t="s">
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>35000000</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>109</v>
       </c>
@@ -4755,35 +5407,38 @@
       <c r="E70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H70" s="9">
+      <c r="I70" s="9">
         <v>1</v>
       </c>
-      <c r="I70" s="8">
+      <c r="J70" s="8">
         <v>43648</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>136000</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70" s="11" t="s">
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>25000000</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>110</v>
       </c>
@@ -4799,35 +5454,38 @@
       <c r="E71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="H71" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="H71" s="9">
+      <c r="I71" s="9">
         <v>3</v>
       </c>
-      <c r="I71" s="8">
+      <c r="J71" s="8">
         <v>43888</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>138000</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71" s="11" t="s">
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>30000000</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>111</v>
       </c>
@@ -4843,35 +5501,38 @@
       <c r="E72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="H72" s="9">
+      <c r="I72" s="9">
         <v>5</v>
       </c>
-      <c r="I72" s="8">
+      <c r="J72" s="8">
         <v>43816</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>140000</v>
       </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" s="11" t="s">
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>32000000</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>112</v>
       </c>
@@ -4887,35 +5548,38 @@
       <c r="E73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="H73" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="H73" s="9">
+      <c r="I73" s="9">
         <v>3</v>
       </c>
-      <c r="I73" s="8">
+      <c r="J73" s="8">
         <v>44217</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>142000</v>
       </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73" s="11" t="s">
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>26000000</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>113</v>
       </c>
@@ -4931,35 +5595,38 @@
       <c r="E74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="H74" s="9">
+      <c r="I74" s="9">
         <v>3</v>
       </c>
-      <c r="I74" s="8">
+      <c r="J74" s="8">
         <v>44235</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>144000</v>
       </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74" s="11" t="s">
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>32000000</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>114</v>
       </c>
@@ -4975,35 +5642,38 @@
       <c r="E75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="H75" s="9">
+      <c r="I75" s="9">
         <v>5</v>
       </c>
-      <c r="I75" s="8">
+      <c r="J75" s="8">
         <v>43347</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>146000</v>
       </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75" s="11" t="s">
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>35000000</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>115</v>
       </c>
@@ -5019,35 +5689,38 @@
       <c r="E76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="H76" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="H76" s="9">
+      <c r="I76" s="9">
         <v>3</v>
       </c>
-      <c r="I76" s="8">
+      <c r="J76" s="8">
         <v>42961</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>148000</v>
       </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" s="11" t="s">
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>48000000</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>116</v>
       </c>
@@ -5063,35 +5736,38 @@
       <c r="E77" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="H77" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="H77" s="9">
+      <c r="I77" s="9">
         <v>1</v>
       </c>
-      <c r="I77" s="8">
+      <c r="J77" s="8">
         <v>43184</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>150000</v>
       </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77" s="11" t="s">
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>49000000</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>117</v>
       </c>
@@ -5107,35 +5783,38 @@
       <c r="E78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="H78" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="H78" s="9">
+      <c r="I78" s="9">
         <v>5</v>
       </c>
-      <c r="I78" s="8">
+      <c r="J78" s="8">
         <v>44365</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>152000</v>
       </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78" s="11" t="s">
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>50000000</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>118</v>
       </c>
@@ -5151,35 +5830,38 @@
       <c r="E79" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="H79" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="H79" s="9">
+      <c r="I79" s="9">
         <v>5</v>
       </c>
-      <c r="I79" s="8">
+      <c r="J79" s="8">
         <v>43847</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>154000</v>
       </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79" s="11" t="s">
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>35000000</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>119</v>
       </c>
@@ -5195,35 +5877,38 @@
       <c r="E80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="H80" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="H80" s="9">
+      <c r="I80" s="9">
         <v>3</v>
       </c>
-      <c r="I80" s="8">
+      <c r="J80" s="8">
         <v>44024</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>156000</v>
       </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80" s="11" t="s">
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>35000000</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>120</v>
       </c>
@@ -5239,35 +5924,38 @@
       <c r="E81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="H81" s="9">
+      <c r="I81" s="9">
         <v>1</v>
       </c>
-      <c r="I81" s="8">
+      <c r="J81" s="8">
         <v>43434</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>158000</v>
       </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81" s="11" t="s">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>40000000</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>121</v>
       </c>
@@ -5283,35 +5971,38 @@
       <c r="E82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="H82" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="H82" s="9">
+      <c r="I82" s="9">
         <v>3</v>
       </c>
-      <c r="I82" s="8">
+      <c r="J82" s="8">
         <v>43720</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>160000</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82" s="11" t="s">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>36000000</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>122</v>
       </c>
@@ -5327,35 +6018,38 @@
       <c r="E83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="H83" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="H83" s="9">
+      <c r="I83" s="9">
         <v>3</v>
       </c>
-      <c r="I83" s="8">
+      <c r="J83" s="8">
         <v>43043</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>162000</v>
       </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83" s="11" t="s">
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>42000000</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>123</v>
       </c>
@@ -5371,35 +6065,38 @@
       <c r="E84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="H84" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="H84" s="9">
+      <c r="I84" s="9">
         <v>5</v>
       </c>
-      <c r="I84" s="8">
+      <c r="J84" s="8">
         <v>43975</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>164000</v>
       </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84" s="11" t="s">
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>41000000</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>124</v>
       </c>
@@ -5415,35 +6112,38 @@
       <c r="E85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="H85" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="H85" s="9">
+      <c r="I85" s="9">
         <v>3</v>
       </c>
-      <c r="I85" s="8">
+      <c r="J85" s="8">
         <v>44278</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>166000</v>
       </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85" s="11" t="s">
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>43000000</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>140</v>
       </c>
@@ -5459,35 +6159,38 @@
       <c r="E86" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="H86" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="H86" s="9">
+      <c r="I86" s="9">
         <v>3</v>
       </c>
-      <c r="I86" s="8">
+      <c r="J86" s="8">
         <v>43015</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>168000</v>
       </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86" s="11" t="s">
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>35000000</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>125</v>
       </c>
@@ -5503,35 +6206,38 @@
       <c r="E87" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="H87" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="H87" s="9">
+      <c r="I87" s="9">
         <v>5</v>
       </c>
-      <c r="I87" s="8">
+      <c r="J87" s="8">
         <v>44069</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>170000</v>
       </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87" s="11" t="s">
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>32000000</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>126</v>
       </c>
@@ -5547,35 +6253,38 @@
       <c r="E88" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="H88" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H88" s="9">
+      <c r="I88" s="9">
         <v>5</v>
       </c>
-      <c r="I88" s="8">
+      <c r="J88" s="8">
         <v>43636</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>172000</v>
       </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88" s="11" t="s">
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>38000000</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>127</v>
       </c>
@@ -5591,35 +6300,38 @@
       <c r="E89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="H89" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="H89" s="9">
+      <c r="I89" s="9">
         <v>5</v>
       </c>
-      <c r="I89" s="8">
+      <c r="J89" s="8">
         <v>43232</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>174000</v>
       </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89" s="11" t="s">
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>35000000</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>128</v>
       </c>
@@ -5635,35 +6347,38 @@
       <c r="E90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="H90" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="H90" s="9">
+      <c r="I90" s="9">
         <v>3</v>
       </c>
-      <c r="I90" s="8">
+      <c r="J90" s="8">
         <v>43805</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>176000</v>
       </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90" s="11" t="s">
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>32000000</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>129</v>
       </c>
@@ -5679,35 +6394,38 @@
       <c r="E91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="H91" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="H91" s="9">
+      <c r="I91" s="9">
         <v>1</v>
       </c>
-      <c r="I91" s="8">
+      <c r="J91" s="8">
         <v>43022</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>178000</v>
       </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91" s="11" t="s">
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>38000000</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>130</v>
       </c>
@@ -5723,35 +6441,38 @@
       <c r="E92" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="G92" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="H92" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="H92" s="9">
+      <c r="I92" s="9">
         <v>3</v>
       </c>
-      <c r="I92" s="8">
+      <c r="J92" s="8">
         <v>43751</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>180000</v>
       </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92" s="11" t="s">
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>35000000</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
@@ -5767,35 +6488,38 @@
       <c r="E93" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="H93" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="H93" s="9">
+      <c r="I93" s="9">
         <v>3</v>
       </c>
-      <c r="I93" s="8">
+      <c r="J93" s="8">
         <v>44273</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>182000</v>
       </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93" s="11" t="s">
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>32000000</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>141</v>
       </c>
@@ -5811,35 +6535,38 @@
       <c r="E94" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="H94" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="H94" s="9">
+      <c r="I94" s="9">
         <v>5</v>
       </c>
-      <c r="I94" s="8">
+      <c r="J94" s="8">
         <v>43853</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>184000</v>
       </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94" s="11" t="s">
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>38000000</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
@@ -5855,35 +6582,38 @@
       <c r="E95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="H95" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="H95" s="9">
+      <c r="I95" s="9">
         <v>3</v>
       </c>
-      <c r="I95" s="8">
+      <c r="J95" s="8">
         <v>43170</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>186000</v>
       </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95" s="11" t="s">
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>35000000</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
@@ -5899,35 +6629,38 @@
       <c r="E96" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="H96" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="H96" s="9">
+      <c r="I96" s="9">
         <v>3</v>
       </c>
-      <c r="I96" s="8">
+      <c r="J96" s="8">
         <v>43006</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>188000</v>
       </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96" s="11" t="s">
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>32000000</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
@@ -5943,35 +6676,38 @@
       <c r="E97" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="H97" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="H97" s="9">
+      <c r="I97" s="9">
         <v>5</v>
       </c>
-      <c r="I97" s="8">
+      <c r="J97" s="8">
         <v>43481</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>190000</v>
       </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97" s="11" t="s">
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>35000000</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>145</v>
       </c>
@@ -5987,35 +6723,38 @@
       <c r="E98" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="H98" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="H98" s="9">
+      <c r="I98" s="9">
         <v>5</v>
       </c>
-      <c r="I98" s="8">
+      <c r="J98" s="8">
         <v>43251</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>192000</v>
       </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98" s="11" t="s">
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>38000000</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>146</v>
       </c>
@@ -6031,35 +6770,38 @@
       <c r="E99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="H99" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="H99" s="9">
+      <c r="I99" s="9">
         <v>5</v>
       </c>
-      <c r="I99" s="8">
+      <c r="J99" s="8">
         <v>44371</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>194000</v>
       </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99" s="11" t="s">
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>38000000</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>147</v>
       </c>
@@ -6075,35 +6817,38 @@
       <c r="E100" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="H100" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="H100" s="9">
+      <c r="I100" s="9">
         <v>1</v>
       </c>
-      <c r="I100" s="8">
+      <c r="J100" s="8">
         <v>43864</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>196000</v>
       </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100" s="11" t="s">
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>38000000</v>
       </c>
-      <c r="N100" t="s">
+      <c r="O100" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>148</v>
       </c>
@@ -6119,147 +6864,159 @@
       <c r="E101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="H101" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="H101" s="9">
+      <c r="I101" s="9">
         <v>3</v>
       </c>
-      <c r="I101" s="8">
+      <c r="J101" s="8">
         <v>43678</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>198000</v>
       </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101" s="11" t="s">
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>32000000</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
+      <c r="F102" s="13"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="8"/>
-      <c r="L102" s="11"/>
-    </row>
-    <row r="103" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H102" s="5"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="8"/>
+      <c r="M102" s="11"/>
+    </row>
+    <row r="103" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="F103" s="14"/>
       <c r="G103" s="1"/>
-      <c r="I103" s="8"/>
-      <c r="L103" s="11"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H103" s="1"/>
+      <c r="J103" s="8"/>
+      <c r="M103" s="11"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
+      <c r="F104" s="15"/>
       <c r="G104" s="2"/>
-      <c r="I104" s="8"/>
-      <c r="L104" s="11"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H104" s="2"/>
+      <c r="J104" s="8"/>
+      <c r="M104" s="11"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="F105" s="15"/>
       <c r="G105" s="2"/>
-      <c r="I105" s="8"/>
-      <c r="L105" s="11"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H105" s="2"/>
+      <c r="J105" s="8"/>
+      <c r="M105" s="11"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+      <c r="F106" s="15"/>
       <c r="G106" s="2"/>
-      <c r="I106" s="8"/>
-      <c r="L106" s="11"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H106" s="2"/>
+      <c r="J106" s="8"/>
+      <c r="M106" s="11"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+      <c r="F107" s="15"/>
       <c r="G107" s="2"/>
-      <c r="I107" s="8"/>
-      <c r="L107" s="11"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I108" s="8"/>
-      <c r="L108" s="11"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L109" s="11"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L110" s="11"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L111" s="11"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L112" s="11"/>
-    </row>
-    <row r="113" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L113" s="11"/>
-    </row>
-    <row r="114" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L114" s="11"/>
-    </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L115" s="11"/>
-    </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L116" s="11"/>
-    </row>
-    <row r="117" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L117" s="11"/>
-    </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L118" s="11"/>
-    </row>
-    <row r="119" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L119" s="11"/>
-    </row>
-    <row r="120" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L120" s="11"/>
-    </row>
-    <row r="121" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L121" s="11"/>
+      <c r="H107" s="2"/>
+      <c r="J107" s="8"/>
+      <c r="M107" s="11"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J108" s="8"/>
+      <c r="M108" s="11"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M109" s="11"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M110" s="11"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M111" s="11"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M112" s="11"/>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M113" s="11"/>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M114" s="11"/>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M115" s="11"/>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M116" s="11"/>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M117" s="11"/>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M118" s="11"/>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M119" s="11"/>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M120" s="11"/>
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M121" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F59" r:id="rId1" xr:uid="{99183767-DB5B-41BE-B4D7-19E5EDFB0637}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/2. 개인회원.xlsx
+++ b/Data/2. 개인회원.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고병철\Desktop\GitKraken\DatabaseProgrammingTeamProject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\학교\3학년(4.5)(2023)\2학기\데이터베이스프로그래밍\과제\팀프로젝트\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D2CA4C-E3B0-4B26-B8A6-B7B52D300CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B05D0D-AD15-4D9C-9944-507A988E9C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DCFF9F2-15FC-4C18-81A5-F7FD688D881C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="467">
   <si>
     <t>회원ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -722,203 +722,6 @@
   <si>
     <t>비밀번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a4B7c8D2</t>
-  </si>
-  <si>
-    <t>3E6f5G1H</t>
-  </si>
-  <si>
-    <t>I9j0K1L2</t>
-  </si>
-  <si>
-    <t>m3N4oP5Q</t>
-  </si>
-  <si>
-    <t>R6s7T8u9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0W1x2Y3</t>
-  </si>
-  <si>
-    <t>Z4b5C6d7</t>
-  </si>
-  <si>
-    <t>8E9f0G1H</t>
-  </si>
-  <si>
-    <t>a1B2c3D</t>
-  </si>
-  <si>
-    <t>4E5f6G7</t>
-  </si>
-  <si>
-    <t>H8i9J0K</t>
-  </si>
-  <si>
-    <t>L1m2N3o</t>
-  </si>
-  <si>
-    <t>P4q5R6s</t>
-  </si>
-  <si>
-    <t>t7U8v9W</t>
-  </si>
-  <si>
-    <t>X0Y1z2A</t>
-  </si>
-  <si>
-    <t>X0Y1z2A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B3c4D5e</t>
-  </si>
-  <si>
-    <t>6F7g8H9</t>
-  </si>
-  <si>
-    <t>I0j1K2L</t>
-  </si>
-  <si>
-    <t>3m4N5o6</t>
-  </si>
-  <si>
-    <t>P7q8R9s</t>
-  </si>
-  <si>
-    <t>t0U1v2W</t>
-  </si>
-  <si>
-    <t>X3Y4z5A</t>
-  </si>
-  <si>
-    <t>B6c7D8e</t>
-  </si>
-  <si>
-    <t>9F0g1H2</t>
-  </si>
-  <si>
-    <t>I3j4K5L</t>
-  </si>
-  <si>
-    <t>m6N7o8P</t>
-  </si>
-  <si>
-    <t>Q9r0S1t</t>
-  </si>
-  <si>
-    <t>U2v3W4X</t>
-  </si>
-  <si>
-    <t>Y5z6A7B</t>
-  </si>
-  <si>
-    <t>C8d9E0f</t>
-  </si>
-  <si>
-    <t>G1H2i3J</t>
-  </si>
-  <si>
-    <t>K4L5m6N</t>
-  </si>
-  <si>
-    <t>O7p8Q9r</t>
-  </si>
-  <si>
-    <t>0S1t2U3</t>
-  </si>
-  <si>
-    <t>v4W5X6Y</t>
-  </si>
-  <si>
-    <t>7z8A9B0</t>
-  </si>
-  <si>
-    <t>C1d2E3f</t>
-  </si>
-  <si>
-    <t>G4H5i6J</t>
-  </si>
-  <si>
-    <t>K7L8m9N</t>
-  </si>
-  <si>
-    <t>O0p1Q2r</t>
-  </si>
-  <si>
-    <t>S3t4U5v</t>
-  </si>
-  <si>
-    <t>W6X7Y8z</t>
-  </si>
-  <si>
-    <t>A9B0C1d</t>
-  </si>
-  <si>
-    <t>2E3f4G5</t>
-  </si>
-  <si>
-    <t>H6i7J8K</t>
-  </si>
-  <si>
-    <t>L9m0N1o</t>
-  </si>
-  <si>
-    <t>P2q3R4s</t>
-  </si>
-  <si>
-    <t>t5U6v7W</t>
-  </si>
-  <si>
-    <t>X8Y9z0A</t>
-  </si>
-  <si>
-    <t>B1c2D3e</t>
-  </si>
-  <si>
-    <t>4F5g6H7</t>
-  </si>
-  <si>
-    <t>I8j9K0L</t>
-  </si>
-  <si>
-    <t>m1N2o3P</t>
-  </si>
-  <si>
-    <t>Q4r5S6t</t>
-  </si>
-  <si>
-    <t>U7v8W9X</t>
-  </si>
-  <si>
-    <t>Y0z1A2B</t>
-  </si>
-  <si>
-    <t>C3d4E5f</t>
-  </si>
-  <si>
-    <t>G6H7i8J</t>
-  </si>
-  <si>
-    <t>K9L0m1N</t>
-  </si>
-  <si>
-    <t>O2p3Q4r</t>
-  </si>
-  <si>
-    <t>S5t6U7v</t>
-  </si>
-  <si>
-    <t>W8X9Y0z</t>
-  </si>
-  <si>
-    <t>A1B2C3d</t>
-  </si>
-  <si>
-    <t>4E5F6g7</t>
   </si>
   <si>
     <t>010-6738-5492</t>
@@ -1474,418 +1277,312 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이메일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>minjilee94@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hojunpark81@daum.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wonderfuljiu@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seoyeonjung07@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hyunwoo99@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>miky0422@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>minieehan93@daum.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>singingyelin89@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>donggunim55@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flowergy91@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>julianlee88@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seryeon98@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jimink91@daum.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seunghyun86@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>serene92@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>junwookang96@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lovelyhj22@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>songbird93@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>minnie87@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sunshine94@daum.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hunnie96@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gabypark85@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kim90@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>haeun89@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seojin95@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jihokangster97@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>soyulhan86@daum.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yeejun91@daum.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dreamyhayoon81@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiny93@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gayeong99@daum.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>minjae96@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kimmy87@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yelin92@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mintychoi85@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiminkang90@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yeuniehan98@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>woosong89@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yoonserim95@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>minnieshyoon91@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gayoung86@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mjpark92@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>juwon87@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>elena94@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>smilemintchoi88@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jminnie93@daum.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yeeunhan99@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dreamysong@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yunsera85@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seungmin99@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>da_eun.kim94@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_jun.lee92@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ga_yeon.park89@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_eun.jung85@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha_yoon.choi02@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seo_jun.kang01@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_yeon.song96@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ye_jin.lim89@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seung_ho.hw@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_ji.kim03@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seo_yun.lee98@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jun_ho.park05@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ye_jin.jung96@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ga_yoon.choi00@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_jae.kang01@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eun_seo.song95@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_ho.lim99@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji_yoon.hwang03@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha_jun.kim97@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ga_yeon.lee03@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seo_jun.park01@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_eun.jung94@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha_jin.choi02@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seung_ho.kang01@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ye_jin.song98@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_seo.lim97@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yun_seo.hwang95@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seung_jun.kim02@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_hyun.lee97@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ye_seul.park99@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ga_eun.jung04@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seo_a.choi04@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha_yoon.kang99@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>da_in.song93@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jun_ho.lim98@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seo_yun.hwang00@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>da_hyun.kim07@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_seo.lee95@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ga_yeong.park08@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha_yul.jung01@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seung_min.choi04@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ye_jin.kang02@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_yun.song02@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seo_eun.lim94@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ye_jun.hwang03@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_ho.kim99@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seung_jun.lee02@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yun_seo.park06@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ga_hyun.jung06@yahoo.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>da_in.choi07@nate.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>abcd1234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd1235</t>
+  </si>
+  <si>
+    <t>abcd1236</t>
+  </si>
+  <si>
+    <t>abcd1237</t>
+  </si>
+  <si>
+    <t>abcd1238</t>
+  </si>
+  <si>
+    <t>abcd1239</t>
+  </si>
+  <si>
+    <t>abcd1240</t>
+  </si>
+  <si>
+    <t>abcd1241</t>
+  </si>
+  <si>
+    <t>abcd1242</t>
+  </si>
+  <si>
+    <t>abcd1243</t>
+  </si>
+  <si>
+    <t>abcd1244</t>
+  </si>
+  <si>
+    <t>abcd1245</t>
+  </si>
+  <si>
+    <t>abcd1246</t>
+  </si>
+  <si>
+    <t>abcd1247</t>
+  </si>
+  <si>
+    <t>abcd1248</t>
+  </si>
+  <si>
+    <t>abcd1249</t>
+  </si>
+  <si>
+    <t>abcd1250</t>
+  </si>
+  <si>
+    <t>abcd1251</t>
+  </si>
+  <si>
+    <t>abcd1252</t>
+  </si>
+  <si>
+    <t>abcd1253</t>
+  </si>
+  <si>
+    <t>abcd1254</t>
+  </si>
+  <si>
+    <t>abcd1255</t>
+  </si>
+  <si>
+    <t>abcd1256</t>
+  </si>
+  <si>
+    <t>abcd1257</t>
+  </si>
+  <si>
+    <t>abcd1258</t>
+  </si>
+  <si>
+    <t>abcd1259</t>
+  </si>
+  <si>
+    <t>abcd1260</t>
+  </si>
+  <si>
+    <t>abcd1261</t>
+  </si>
+  <si>
+    <t>abcd1262</t>
+  </si>
+  <si>
+    <t>abcd1263</t>
+  </si>
+  <si>
+    <t>abcd1264</t>
+  </si>
+  <si>
+    <t>abcd1265</t>
+  </si>
+  <si>
+    <t>abcd1266</t>
+  </si>
+  <si>
+    <t>abcd1267</t>
+  </si>
+  <si>
+    <t>abcd1268</t>
+  </si>
+  <si>
+    <t>abcd1269</t>
+  </si>
+  <si>
+    <t>abcd1270</t>
+  </si>
+  <si>
+    <t>abcd1271</t>
+  </si>
+  <si>
+    <t>abcd1272</t>
+  </si>
+  <si>
+    <t>abcd1273</t>
+  </si>
+  <si>
+    <t>abcd1274</t>
+  </si>
+  <si>
+    <t>abcd1275</t>
+  </si>
+  <si>
+    <t>abcd1276</t>
+  </si>
+  <si>
+    <t>abcd1277</t>
+  </si>
+  <si>
+    <t>abcd1278</t>
+  </si>
+  <si>
+    <t>abcd1279</t>
+  </si>
+  <si>
+    <t>abcd1280</t>
+  </si>
+  <si>
+    <t>abcd1281</t>
+  </si>
+  <si>
+    <t>abcd1282</t>
+  </si>
+  <si>
+    <t>abcd1283</t>
+  </si>
+  <si>
+    <t>abcd1284</t>
+  </si>
+  <si>
+    <t>abcd1285</t>
+  </si>
+  <si>
+    <t>abcd1286</t>
+  </si>
+  <si>
+    <t>abcd1287</t>
+  </si>
+  <si>
+    <t>abcd1288</t>
+  </si>
+  <si>
+    <t>abcd1289</t>
+  </si>
+  <si>
+    <t>abcd1290</t>
+  </si>
+  <si>
+    <t>abcd1291</t>
+  </si>
+  <si>
+    <t>abcd1292</t>
+  </si>
+  <si>
+    <t>abcd1293</t>
+  </si>
+  <si>
+    <t>abcd1294</t>
+  </si>
+  <si>
+    <t>abcd1295</t>
+  </si>
+  <si>
+    <t>abcd1296</t>
+  </si>
+  <si>
+    <t>abcd1297</t>
+  </si>
+  <si>
+    <t>abcd1298</t>
+  </si>
+  <si>
+    <t>abcd1299</t>
+  </si>
+  <si>
+    <t>abcd1300</t>
+  </si>
+  <si>
+    <t>abcd1301</t>
+  </si>
+  <si>
+    <t>abcd1302</t>
+  </si>
+  <si>
+    <t>abcd1303</t>
+  </si>
+  <si>
+    <t>abcd1304</t>
+  </si>
+  <si>
+    <t>abcd1305</t>
+  </si>
+  <si>
+    <t>abcd1306</t>
+  </si>
+  <si>
+    <t>abcd1307</t>
+  </si>
+  <si>
+    <t>abcd1308</t>
+  </si>
+  <si>
+    <t>abcd1309</t>
+  </si>
+  <si>
+    <t>abcd1310</t>
+  </si>
+  <si>
+    <t>abcd1311</t>
+  </si>
+  <si>
+    <t>abcd1312</t>
+  </si>
+  <si>
+    <t>abcd1313</t>
+  </si>
+  <si>
+    <t>abcd1314</t>
+  </si>
+  <si>
+    <t>abcd1315</t>
+  </si>
+  <si>
+    <t>abcd1316</t>
+  </si>
+  <si>
+    <t>abcd1317</t>
+  </si>
+  <si>
+    <t>abcd1318</t>
+  </si>
+  <si>
+    <t>abcd1319</t>
+  </si>
+  <si>
+    <t>abcd1320</t>
+  </si>
+  <si>
+    <t>abcd1321</t>
+  </si>
+  <si>
+    <t>abcd1322</t>
+  </si>
+  <si>
+    <t>abcd1323</t>
+  </si>
+  <si>
+    <t>abcd1324</t>
+  </si>
+  <si>
+    <t>abcd1325</t>
+  </si>
+  <si>
+    <t>abcd1326</t>
+  </si>
+  <si>
+    <t>abcd1327</t>
+  </si>
+  <si>
+    <t>abcd1328</t>
+  </si>
+  <si>
+    <t>abcd1329</t>
+  </si>
+  <si>
+    <t>abcd1330</t>
+  </si>
+  <si>
+    <t>abcd1331</t>
+  </si>
+  <si>
+    <t>abcd1332</t>
+  </si>
+  <si>
+    <t>abcd1333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0##\-####\-####"/>
-  </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1932,24 +1629,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1968,15 +1647,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2011,25 +1687,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2341,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468B34A-F573-43F2-83C7-0B79BC91E257}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2354,17 +2014,16 @@
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.25" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.25" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2381,42 +2040,39 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>432</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>396</v>
+        <v>330</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>424</v>
+        <v>332</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -2427,34 +2083,31 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>433</v>
+      <c r="F2" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="I2" s="9">
+        <v>299</v>
+      </c>
+      <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="10">
         <v>43835</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>199</v>
+        <v>368</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -2465,43 +2118,40 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>434</v>
+      <c r="F3" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="I3" s="9">
+        <v>300</v>
+      </c>
+      <c r="H3" s="9">
         <v>3</v>
       </c>
-      <c r="J3" s="8">
+      <c r="I3" s="8">
         <v>43695</v>
       </c>
+      <c r="J3">
+        <v>2000</v>
+      </c>
       <c r="K3">
-        <v>2000</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="M3">
         <v>90000000</v>
       </c>
-      <c r="O3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
@@ -2512,43 +2162,40 @@
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>435</v>
+      <c r="F4" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I4" s="9">
+        <v>301</v>
+      </c>
+      <c r="H4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="8">
+      <c r="I4" s="8">
         <v>44250</v>
       </c>
+      <c r="J4">
+        <v>4000</v>
+      </c>
       <c r="K4">
-        <v>4000</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M4">
         <v>46000000</v>
       </c>
-      <c r="O4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>201</v>
+      <c r="B5" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -2559,43 +2206,40 @@
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>436</v>
+      <c r="F5" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="I5" s="9">
+        <v>302</v>
+      </c>
+      <c r="H5" s="9">
         <v>5</v>
       </c>
-      <c r="J5" s="8">
+      <c r="I5" s="8">
         <v>43659</v>
       </c>
+      <c r="J5">
+        <v>6000</v>
+      </c>
       <c r="K5">
-        <v>6000</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="M5">
         <v>38000000</v>
       </c>
-      <c r="O5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>202</v>
+      <c r="B6" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -2606,43 +2250,40 @@
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>437</v>
+      <c r="F6" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="I6" s="9">
+        <v>303</v>
+      </c>
+      <c r="H6" s="9">
         <v>5</v>
       </c>
-      <c r="J6" s="8">
+      <c r="I6" s="8">
         <v>44002</v>
       </c>
+      <c r="J6">
+        <v>8000</v>
+      </c>
       <c r="K6">
-        <v>8000</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="M6">
         <v>24000000</v>
       </c>
-      <c r="O6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>203</v>
+      <c r="B7" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>16</v>
@@ -2653,43 +2294,40 @@
       <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>438</v>
+      <c r="F7" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I7" s="9">
+        <v>304</v>
+      </c>
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="J7" s="8">
+      <c r="I7" s="8">
         <v>43302</v>
       </c>
+      <c r="J7">
+        <v>10000</v>
+      </c>
       <c r="K7">
-        <v>10000</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="M7">
         <v>40000000</v>
       </c>
-      <c r="O7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>204</v>
+      <c r="B8" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>17</v>
@@ -2700,43 +2338,40 @@
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>439</v>
+      <c r="F8" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="I8" s="9">
+        <v>305</v>
+      </c>
+      <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="J8" s="8">
+      <c r="I8" s="8">
         <v>43010</v>
       </c>
+      <c r="J8">
+        <v>12000</v>
+      </c>
       <c r="K8">
-        <v>12000</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M8">
         <v>24000000</v>
       </c>
-      <c r="O8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>205</v>
+      <c r="B9" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>18</v>
@@ -2747,43 +2382,40 @@
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>440</v>
+      <c r="F9" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="I9" s="9">
+        <v>306</v>
+      </c>
+      <c r="H9" s="9">
         <v>3</v>
       </c>
-      <c r="J9" s="8">
+      <c r="I9" s="8">
         <v>44380</v>
       </c>
+      <c r="J9">
+        <v>14000</v>
+      </c>
       <c r="K9">
-        <v>14000</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="M9">
         <v>35000000</v>
       </c>
-      <c r="O9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>206</v>
+      <c r="B10" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
@@ -2794,43 +2426,40 @@
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>441</v>
+      <c r="F10" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I10" s="9">
+        <v>307</v>
+      </c>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="J10" s="8">
+      <c r="I10" s="8">
         <v>43367</v>
       </c>
+      <c r="J10">
+        <v>16000</v>
+      </c>
       <c r="K10">
-        <v>16000</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="M10">
         <v>41000000</v>
       </c>
-      <c r="O10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>207</v>
+      <c r="B11" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>20</v>
@@ -2841,43 +2470,40 @@
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>442</v>
+      <c r="F11" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I11" s="9">
+        <v>308</v>
+      </c>
+      <c r="H11" s="9">
         <v>5</v>
       </c>
-      <c r="J11" s="8">
+      <c r="I11" s="8">
         <v>43901</v>
       </c>
+      <c r="J11">
+        <v>18000</v>
+      </c>
       <c r="K11">
-        <v>18000</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="M11">
         <v>30000000</v>
       </c>
-      <c r="O11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>208</v>
+      <c r="B12" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>21</v>
@@ -2888,43 +2514,40 @@
       <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>443</v>
+      <c r="F12" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="I12" s="9">
+        <v>309</v>
+      </c>
+      <c r="H12" s="9">
         <v>1</v>
       </c>
-      <c r="J12" s="8">
+      <c r="I12" s="8">
         <v>43594</v>
       </c>
+      <c r="J12">
+        <v>20000</v>
+      </c>
       <c r="K12">
-        <v>20000</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="M12">
         <v>65000000</v>
       </c>
-      <c r="O12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>209</v>
+      <c r="B13" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>22</v>
@@ -2935,43 +2558,40 @@
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>444</v>
+      <c r="F13" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="I13" s="9">
+        <v>310</v>
+      </c>
+      <c r="H13" s="9">
         <v>1</v>
       </c>
-      <c r="J13" s="8">
+      <c r="I13" s="8">
         <v>43527</v>
       </c>
+      <c r="J13">
+        <v>22000</v>
+      </c>
       <c r="K13">
-        <v>22000</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="M13">
         <v>76000000</v>
       </c>
-      <c r="O13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>210</v>
+      <c r="B14" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>23</v>
@@ -2982,43 +2602,40 @@
       <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>445</v>
+      <c r="F14" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="I14" s="9">
+        <v>311</v>
+      </c>
+      <c r="H14" s="9">
         <v>3</v>
       </c>
-      <c r="J14" s="8">
+      <c r="I14" s="8">
         <v>43096</v>
       </c>
+      <c r="J14">
+        <v>24000</v>
+      </c>
       <c r="K14">
-        <v>24000</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="M14">
         <v>46000000</v>
       </c>
-      <c r="O14" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>211</v>
+      <c r="B15" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>24</v>
@@ -3029,43 +2646,40 @@
       <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>446</v>
+      <c r="F15" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="I15" s="9">
+        <v>312</v>
+      </c>
+      <c r="H15" s="9">
         <v>3</v>
       </c>
-      <c r="J15" s="8">
+      <c r="I15" s="8">
         <v>42987</v>
       </c>
+      <c r="J15">
+        <v>26000</v>
+      </c>
       <c r="K15">
-        <v>26000</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="M15">
         <v>24000000</v>
       </c>
-      <c r="O15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>213</v>
+      <c r="B16" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>25</v>
@@ -3076,43 +2690,40 @@
       <c r="E16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>447</v>
+      <c r="F16" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="I16" s="9">
+        <v>313</v>
+      </c>
+      <c r="H16" s="9">
         <v>3</v>
       </c>
-      <c r="J16" s="8">
+      <c r="I16" s="8">
         <v>43340</v>
       </c>
+      <c r="J16">
+        <v>28000</v>
+      </c>
       <c r="K16">
-        <v>28000</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="M16">
         <v>32000000</v>
       </c>
-      <c r="O16" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>214</v>
+      <c r="B17" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>26</v>
@@ -3123,43 +2734,40 @@
       <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>448</v>
+      <c r="F17" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="I17" s="9">
+        <v>314</v>
+      </c>
+      <c r="H17" s="9">
         <v>3</v>
       </c>
-      <c r="J17" s="8">
+      <c r="I17" s="8">
         <v>44198</v>
       </c>
+      <c r="J17">
+        <v>30000</v>
+      </c>
       <c r="K17">
-        <v>30000</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="M17">
         <v>34000000</v>
       </c>
-      <c r="O17" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>215</v>
+      <c r="B18" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>27</v>
@@ -3170,43 +2778,40 @@
       <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>449</v>
+      <c r="F18" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="I18" s="9">
+        <v>315</v>
+      </c>
+      <c r="H18" s="9">
         <v>1</v>
       </c>
-      <c r="J18" s="8">
+      <c r="I18" s="8">
         <v>43075</v>
       </c>
+      <c r="J18">
+        <v>32000</v>
+      </c>
       <c r="K18">
-        <v>32000</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="M18">
         <v>26000000</v>
       </c>
-      <c r="O18" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>216</v>
+      <c r="B19" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>28</v>
@@ -3217,43 +2822,40 @@
       <c r="E19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>450</v>
+      <c r="F19" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="I19" s="9">
+        <v>316</v>
+      </c>
+      <c r="H19" s="9">
         <v>5</v>
       </c>
-      <c r="J19" s="8">
+      <c r="I19" s="8">
         <v>43940</v>
       </c>
+      <c r="J19">
+        <v>34000</v>
+      </c>
       <c r="K19">
-        <v>34000</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="M19">
         <v>24000000</v>
       </c>
-      <c r="O19" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>217</v>
+      <c r="B20" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>29</v>
@@ -3264,43 +2866,40 @@
       <c r="E20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>451</v>
+      <c r="F20" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="I20" s="9">
+        <v>299</v>
+      </c>
+      <c r="H20" s="9">
         <v>5</v>
       </c>
-      <c r="J20" s="8">
+      <c r="I20" s="8">
         <v>43510</v>
       </c>
+      <c r="J20">
+        <v>36000</v>
+      </c>
       <c r="K20">
-        <v>36000</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M20">
         <v>37000000</v>
       </c>
-      <c r="O20" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>218</v>
+      <c r="B21" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>30</v>
@@ -3311,43 +2910,40 @@
       <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>452</v>
+      <c r="F21" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="I21" s="9">
+        <v>317</v>
+      </c>
+      <c r="H21" s="9">
         <v>5</v>
       </c>
-      <c r="J21" s="8">
+      <c r="I21" s="8">
         <v>44187</v>
       </c>
+      <c r="J21">
+        <v>38000</v>
+      </c>
       <c r="K21">
-        <v>38000</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="M21">
         <v>42000000</v>
       </c>
-      <c r="O21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>219</v>
+      <c r="B22" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>31</v>
@@ -3358,43 +2954,40 @@
       <c r="E22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>453</v>
+      <c r="F22" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="H22" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>43058</v>
+      </c>
+      <c r="J22">
+        <v>40000</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="M22">
+        <v>38000000</v>
+      </c>
+      <c r="N22" t="s">
         <v>366</v>
       </c>
-      <c r="I22" s="9">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8">
-        <v>43058</v>
-      </c>
-      <c r="K22">
-        <v>40000</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="N22">
-        <v>38000000</v>
-      </c>
-      <c r="O22" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>220</v>
+      <c r="B23" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>32</v>
@@ -3405,43 +2998,40 @@
       <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>454</v>
+      <c r="F23" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="I23" s="9">
+        <v>302</v>
+      </c>
+      <c r="H23" s="9">
         <v>3</v>
       </c>
-      <c r="J23" s="8">
+      <c r="I23" s="8">
         <v>44010</v>
       </c>
+      <c r="J23">
+        <v>42000</v>
+      </c>
       <c r="K23">
-        <v>42000</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="M23">
         <v>36000000</v>
       </c>
-      <c r="O23" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>221</v>
+      <c r="B24" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>33</v>
@@ -3452,43 +3042,40 @@
       <c r="E24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>455</v>
+      <c r="F24" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="I24" s="9">
+        <v>303</v>
+      </c>
+      <c r="H24" s="9">
         <v>1</v>
       </c>
-      <c r="J24" s="8">
+      <c r="I24" s="8">
         <v>43123</v>
       </c>
+      <c r="J24">
+        <v>44000</v>
+      </c>
       <c r="K24">
-        <v>44000</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="M24">
         <v>40000000</v>
       </c>
-      <c r="O24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>222</v>
+      <c r="B25" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>34</v>
@@ -3499,43 +3086,40 @@
       <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>456</v>
+      <c r="F25" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I25" s="9">
+        <v>304</v>
+      </c>
+      <c r="H25" s="9">
         <v>1</v>
       </c>
-      <c r="J25" s="8">
+      <c r="I25" s="8">
         <v>43781</v>
       </c>
+      <c r="J25">
+        <v>46000</v>
+      </c>
       <c r="K25">
-        <v>46000</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="M25">
         <v>35000000</v>
       </c>
-      <c r="O25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>223</v>
+      <c r="B26" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>35</v>
@@ -3546,43 +3130,40 @@
       <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>457</v>
+      <c r="F26" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="I26" s="9">
+        <v>305</v>
+      </c>
+      <c r="H26" s="9">
         <v>3</v>
       </c>
-      <c r="J26" s="8">
+      <c r="I26" s="8">
         <v>42976</v>
       </c>
+      <c r="J26">
+        <v>48000</v>
+      </c>
       <c r="K26">
-        <v>48000</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="M26">
         <v>35000000</v>
       </c>
-      <c r="O26" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>224</v>
+      <c r="B27" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>36</v>
@@ -3593,34 +3174,31 @@
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>458</v>
+      <c r="F27" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="I27" s="9">
+        <v>306</v>
+      </c>
+      <c r="H27" s="9">
         <v>3</v>
       </c>
-      <c r="J27" s="8">
+      <c r="I27" s="8">
         <v>43179</v>
       </c>
+      <c r="J27">
+        <v>50000</v>
+      </c>
       <c r="K27">
-        <v>50000</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>225</v>
+      <c r="B28" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>37</v>
@@ -3631,34 +3209,31 @@
       <c r="E28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>459</v>
+      <c r="F28" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I28" s="9">
+        <v>307</v>
+      </c>
+      <c r="H28" s="9">
         <v>3</v>
       </c>
-      <c r="J28" s="8">
+      <c r="I28" s="8">
         <v>44377</v>
       </c>
+      <c r="J28">
+        <v>52000</v>
+      </c>
       <c r="K28">
-        <v>52000</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>226</v>
+      <c r="B29" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>38</v>
@@ -3669,34 +3244,31 @@
       <c r="E29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>460</v>
+      <c r="F29" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I29" s="9">
+        <v>308</v>
+      </c>
+      <c r="H29" s="9">
         <v>5</v>
       </c>
-      <c r="J29" s="8">
+      <c r="I29" s="8">
         <v>43631</v>
       </c>
+      <c r="J29">
+        <v>54000</v>
+      </c>
       <c r="K29">
-        <v>54000</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>227</v>
+      <c r="B30" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>39</v>
@@ -3707,34 +3279,31 @@
       <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>461</v>
+      <c r="F30" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="I30" s="9">
+        <v>309</v>
+      </c>
+      <c r="H30" s="9">
         <v>5</v>
       </c>
-      <c r="J30" s="8">
+      <c r="I30" s="8">
         <v>44459</v>
       </c>
+      <c r="J30">
+        <v>56000</v>
+      </c>
       <c r="K30">
-        <v>56000</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>228</v>
+      <c r="B31" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>40</v>
@@ -3745,34 +3314,31 @@
       <c r="E31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>462</v>
+      <c r="F31" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="I31" s="9">
+        <v>318</v>
+      </c>
+      <c r="H31" s="9">
         <v>1</v>
       </c>
-      <c r="J31" s="8">
+      <c r="I31" s="8">
         <v>43383</v>
       </c>
+      <c r="J31">
+        <v>58000</v>
+      </c>
       <c r="K31">
-        <v>58000</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>229</v>
+      <c r="B32" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>41</v>
@@ -3783,34 +3349,31 @@
       <c r="E32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>463</v>
+      <c r="F32" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="I32" s="9">
+        <v>311</v>
+      </c>
+      <c r="H32" s="9">
         <v>3</v>
       </c>
-      <c r="J32" s="8">
+      <c r="I32" s="8">
         <v>42998</v>
       </c>
+      <c r="J32">
+        <v>60000</v>
+      </c>
       <c r="K32">
-        <v>60000</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>230</v>
+      <c r="B33" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>42</v>
@@ -3821,34 +3384,31 @@
       <c r="E33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>464</v>
+      <c r="F33" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="I33" s="9">
+        <v>312</v>
+      </c>
+      <c r="H33" s="9">
         <v>3</v>
       </c>
-      <c r="J33" s="8">
+      <c r="I33" s="8">
         <v>44057</v>
       </c>
+      <c r="J33">
+        <v>62000</v>
+      </c>
       <c r="K33">
-        <v>62000</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>231</v>
+      <c r="B34" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>43</v>
@@ -3859,34 +3419,31 @@
       <c r="E34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>465</v>
+      <c r="F34" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="I34" s="9">
+        <v>313</v>
+      </c>
+      <c r="H34" s="9">
         <v>1</v>
       </c>
-      <c r="J34" s="8">
+      <c r="I34" s="8">
         <v>43964</v>
       </c>
+      <c r="J34">
+        <v>64000</v>
+      </c>
       <c r="K34">
-        <v>64000</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>232</v>
+      <c r="B35" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>45</v>
@@ -3897,34 +3454,31 @@
       <c r="E35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>466</v>
+      <c r="F35" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="I35" s="9">
+        <v>319</v>
+      </c>
+      <c r="H35" s="9">
         <v>1</v>
       </c>
-      <c r="J35" s="8">
+      <c r="I35" s="8">
         <v>43515</v>
       </c>
+      <c r="J35">
+        <v>66000</v>
+      </c>
       <c r="K35">
-        <v>66000</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>233</v>
+      <c r="B36" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>46</v>
@@ -3935,34 +3489,31 @@
       <c r="E36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>467</v>
+      <c r="F36" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="I36" s="9">
+        <v>315</v>
+      </c>
+      <c r="H36" s="9">
         <v>1</v>
       </c>
-      <c r="J36" s="8">
+      <c r="I36" s="8">
         <v>43137</v>
       </c>
+      <c r="J36">
+        <v>68000</v>
+      </c>
       <c r="K36">
-        <v>68000</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>234</v>
+      <c r="B37" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>47</v>
@@ -3973,34 +3524,31 @@
       <c r="E37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>468</v>
+      <c r="F37" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="I37" s="9">
+        <v>316</v>
+      </c>
+      <c r="H37" s="9">
         <v>3</v>
       </c>
-      <c r="J37" s="8">
+      <c r="I37" s="8">
         <v>44119</v>
       </c>
+      <c r="J37">
+        <v>70000</v>
+      </c>
       <c r="K37">
-        <v>70000</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>235</v>
+      <c r="B38" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>48</v>
@@ -4011,34 +3559,31 @@
       <c r="E38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>469</v>
+      <c r="F38" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="I38" s="9">
+      <c r="H38" s="9">
         <v>5</v>
       </c>
-      <c r="J38" s="8">
+      <c r="I38" s="8">
         <v>43673</v>
       </c>
+      <c r="J38">
+        <v>72000</v>
+      </c>
       <c r="K38">
-        <v>72000</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>236</v>
+      <c r="B39" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>49</v>
@@ -4049,34 +3594,31 @@
       <c r="E39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>470</v>
+      <c r="F39" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="I39" s="9">
+        <v>317</v>
+      </c>
+      <c r="H39" s="9">
         <v>5</v>
       </c>
-      <c r="J39" s="8">
+      <c r="I39" s="8">
         <v>43294</v>
       </c>
+      <c r="J39">
+        <v>74000</v>
+      </c>
       <c r="K39">
-        <v>74000</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>237</v>
+      <c r="B40" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>50</v>
@@ -4087,34 +3629,31 @@
       <c r="E40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>471</v>
+      <c r="F40" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I40" s="9">
+      <c r="H40" s="9">
         <v>1</v>
       </c>
-      <c r="J40" s="8">
+      <c r="I40" s="8">
         <v>43915</v>
       </c>
+      <c r="J40">
+        <v>76000</v>
+      </c>
       <c r="K40">
-        <v>76000</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>238</v>
+      <c r="B41" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>97</v>
@@ -4125,34 +3664,31 @@
       <c r="E41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>472</v>
+      <c r="F41" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="I41" s="9">
+      <c r="H41" s="9">
         <v>3</v>
       </c>
-      <c r="J41" s="8">
+      <c r="I41" s="8">
         <v>43620</v>
       </c>
+      <c r="J41">
+        <v>78000</v>
+      </c>
       <c r="K41">
-        <v>78000</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>239</v>
+      <c r="B42" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>41</v>
@@ -4163,34 +3699,31 @@
       <c r="E42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>473</v>
+      <c r="F42" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="I42" s="9">
+      <c r="H42" s="9">
         <v>3</v>
       </c>
-      <c r="J42" s="8">
+      <c r="I42" s="8">
         <v>43017</v>
       </c>
+      <c r="J42">
+        <v>80000</v>
+      </c>
       <c r="K42">
-        <v>80000</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>240</v>
+      <c r="B43" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>42</v>
@@ -4201,34 +3734,31 @@
       <c r="E43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>474</v>
+      <c r="F43" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I43" s="9">
+      <c r="H43" s="9">
         <v>1</v>
       </c>
-      <c r="J43" s="8">
+      <c r="I43" s="8">
         <v>43761</v>
       </c>
+      <c r="J43">
+        <v>82000</v>
+      </c>
       <c r="K43">
-        <v>82000</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>241</v>
+      <c r="B44" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>43</v>
@@ -4239,34 +3769,31 @@
       <c r="E44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>475</v>
+      <c r="F44" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="I44" s="9">
+      <c r="H44" s="9">
         <v>1</v>
       </c>
-      <c r="J44" s="8">
+      <c r="I44" s="8">
         <v>43129</v>
       </c>
+      <c r="J44">
+        <v>84000</v>
+      </c>
       <c r="K44">
-        <v>84000</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>242</v>
+      <c r="B45" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>45</v>
@@ -4277,34 +3804,31 @@
       <c r="E45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>476</v>
+      <c r="F45" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="I45" s="9">
+      <c r="H45" s="9">
         <v>3</v>
       </c>
-      <c r="J45" s="8">
+      <c r="I45" s="8">
         <v>44030</v>
       </c>
+      <c r="J45">
+        <v>86000</v>
+      </c>
       <c r="K45">
-        <v>86000</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>243</v>
+      <c r="B46" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>46</v>
@@ -4315,34 +3839,31 @@
       <c r="E46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>477</v>
+      <c r="F46" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I46" s="9">
+      <c r="H46" s="9">
         <v>5</v>
       </c>
-      <c r="J46" s="8">
+      <c r="I46" s="8">
         <v>43087</v>
       </c>
+      <c r="J46">
+        <v>88000</v>
+      </c>
       <c r="K46">
-        <v>88000</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>244</v>
+      <c r="B47" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>47</v>
@@ -4353,34 +3874,31 @@
       <c r="E47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>478</v>
+      <c r="F47" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="I47" s="9">
+        <v>320</v>
+      </c>
+      <c r="H47" s="9">
         <v>3</v>
       </c>
-      <c r="J47" s="8">
+      <c r="I47" s="8">
         <v>43772</v>
       </c>
+      <c r="J47">
+        <v>90000</v>
+      </c>
       <c r="K47">
-        <v>90000</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>245</v>
+      <c r="B48" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>48</v>
@@ -4391,34 +3909,31 @@
       <c r="E48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>479</v>
+      <c r="F48" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="I48" s="9">
+        <v>321</v>
+      </c>
+      <c r="H48" s="9">
         <v>1</v>
       </c>
-      <c r="J48" s="8">
+      <c r="I48" s="8">
         <v>44284</v>
       </c>
+      <c r="J48">
+        <v>92000</v>
+      </c>
       <c r="K48">
-        <v>92000</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>246</v>
+      <c r="B49" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>49</v>
@@ -4429,34 +3944,31 @@
       <c r="E49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>480</v>
+      <c r="F49" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="I49" s="9">
+        <v>322</v>
+      </c>
+      <c r="H49" s="9">
         <v>5</v>
       </c>
-      <c r="J49" s="8">
+      <c r="I49" s="8">
         <v>44257</v>
       </c>
+      <c r="J49">
+        <v>94000</v>
+      </c>
       <c r="K49">
-        <v>94000</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>247</v>
+      <c r="B50" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>50</v>
@@ -4467,43 +3979,40 @@
       <c r="E50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>481</v>
+      <c r="F50" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="I50" s="9">
+        <v>323</v>
+      </c>
+      <c r="H50" s="9">
         <v>3</v>
       </c>
-      <c r="J50" s="8">
+      <c r="I50" s="8">
         <v>43534</v>
       </c>
+      <c r="J50">
+        <v>96000</v>
+      </c>
       <c r="K50">
-        <v>96000</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="M50">
         <v>30000000</v>
       </c>
-      <c r="O50" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>248</v>
+      <c r="B51" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>51</v>
@@ -4514,43 +4023,40 @@
       <c r="E51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>482</v>
+      <c r="F51" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="I51" s="9">
+        <v>324</v>
+      </c>
+      <c r="H51" s="9">
         <v>1</v>
       </c>
-      <c r="J51" s="8">
+      <c r="I51" s="8">
         <v>44142</v>
       </c>
+      <c r="J51">
+        <v>98000</v>
+      </c>
       <c r="K51">
-        <v>98000</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M51">
         <v>110000000</v>
       </c>
-      <c r="O51" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>249</v>
+      <c r="B52" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>98</v>
@@ -4561,43 +4067,40 @@
       <c r="E52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="I52" s="9">
+      <c r="F52" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H52" s="9">
         <v>3</v>
       </c>
-      <c r="J52" s="8">
+      <c r="I52" s="8">
         <v>43314</v>
       </c>
+      <c r="J52">
+        <v>100000</v>
+      </c>
       <c r="K52">
-        <v>100000</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="M52">
         <v>45000000</v>
       </c>
-      <c r="O52" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>250</v>
+      <c r="B53" s="6" t="s">
+        <v>418</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>132</v>
@@ -4608,43 +4111,40 @@
       <c r="E53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="I53" s="9">
+      <c r="F53" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H53" s="9">
         <v>3</v>
       </c>
-      <c r="J53" s="8">
+      <c r="I53" s="8">
         <v>43581</v>
       </c>
+      <c r="J53">
+        <v>102000</v>
+      </c>
       <c r="K53">
-        <v>102000</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="M53">
         <v>24000000</v>
       </c>
-      <c r="O53" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>251</v>
+      <c r="B54" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>133</v>
@@ -4655,43 +4155,40 @@
       <c r="E54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I54" s="9">
+      <c r="F54" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H54" s="9">
         <v>1</v>
       </c>
-      <c r="J54" s="8">
+      <c r="I54" s="8">
         <v>43240</v>
       </c>
+      <c r="J54">
+        <v>104000</v>
+      </c>
       <c r="K54">
-        <v>104000</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="M54">
         <v>24000000</v>
       </c>
-      <c r="O54" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>252</v>
+      <c r="B55" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>134</v>
@@ -4702,43 +4199,40 @@
       <c r="E55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="I55" s="9">
+      <c r="F55" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H55" s="9">
         <v>1</v>
       </c>
-      <c r="J55" s="8">
+      <c r="I55" s="8">
         <v>44444</v>
       </c>
+      <c r="J55">
+        <v>106000</v>
+      </c>
       <c r="K55">
-        <v>106000</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M55">
         <v>24000000</v>
       </c>
-      <c r="O55" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>253</v>
+      <c r="B56" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>135</v>
@@ -4749,43 +4243,40 @@
       <c r="E56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="I56" s="9">
+      <c r="F56" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H56" s="9">
         <v>3</v>
       </c>
-      <c r="J56" s="8">
+      <c r="I56" s="8">
         <v>44172</v>
       </c>
+      <c r="J56">
+        <v>108000</v>
+      </c>
       <c r="K56">
-        <v>108000</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="M56">
         <v>35000000</v>
       </c>
-      <c r="O56" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N56" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>254</v>
+      <c r="B57" s="6" t="s">
+        <v>422</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>136</v>
@@ -4796,43 +4287,40 @@
       <c r="E57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I57" s="9">
+      <c r="F57" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H57" s="9">
         <v>5</v>
       </c>
-      <c r="J57" s="8">
+      <c r="I57" s="8">
         <v>43626</v>
       </c>
+      <c r="J57">
+        <v>110000</v>
+      </c>
       <c r="K57">
-        <v>110000</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="M57">
         <v>25000000</v>
       </c>
-      <c r="O57" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>255</v>
+      <c r="B58" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>137</v>
@@ -4843,43 +4331,40 @@
       <c r="E58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="I58" s="9">
+      <c r="F58" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H58" s="9">
         <v>3</v>
       </c>
-      <c r="J58" s="8">
+      <c r="I58" s="8">
         <v>42958</v>
       </c>
+      <c r="J58">
+        <v>112000</v>
+      </c>
       <c r="K58">
-        <v>112000</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="M58">
         <v>24000000</v>
       </c>
-      <c r="O58" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N58" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>256</v>
+      <c r="B59" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>149</v>
@@ -4890,43 +4375,40 @@
       <c r="E59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="I59" s="9">
+      <c r="F59" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H59" s="9">
         <v>3</v>
       </c>
-      <c r="J59" s="8">
+      <c r="I59" s="8">
         <v>43146</v>
       </c>
+      <c r="J59">
+        <v>114000</v>
+      </c>
       <c r="K59">
-        <v>114000</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="M59">
         <v>32000000</v>
       </c>
-      <c r="O59" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N59" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>257</v>
+      <c r="B60" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>150</v>
@@ -4937,43 +4419,40 @@
       <c r="E60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I60" s="9">
+      <c r="F60" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H60" s="9">
         <v>5</v>
       </c>
-      <c r="J60" s="8">
+      <c r="I60" s="8">
         <v>43809</v>
       </c>
+      <c r="J60">
+        <v>116000</v>
+      </c>
       <c r="K60">
-        <v>116000</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="M60">
         <v>33000000</v>
       </c>
-      <c r="O60" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N60" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>258</v>
+      <c r="B61" s="6" t="s">
+        <v>426</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>151</v>
@@ -4984,43 +4463,40 @@
       <c r="E61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I61" s="9">
+      <c r="F61" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="H61" s="9">
         <v>3</v>
       </c>
-      <c r="J61" s="8">
+      <c r="I61" s="8">
         <v>44343</v>
       </c>
+      <c r="J61">
+        <v>118000</v>
+      </c>
       <c r="K61">
-        <v>118000</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="M61">
         <v>76000000</v>
       </c>
-      <c r="O61" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N61" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>259</v>
+      <c r="B62" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>152</v>
@@ -5031,43 +4507,40 @@
       <c r="E62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="I62" s="9">
+      <c r="F62" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H62" s="9">
         <v>1</v>
       </c>
-      <c r="J62" s="8">
+      <c r="I62" s="8">
         <v>44334</v>
       </c>
+      <c r="J62">
+        <v>120000</v>
+      </c>
       <c r="K62">
-        <v>120000</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="M62">
         <v>24000000</v>
       </c>
-      <c r="O62" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N62" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>260</v>
+      <c r="B63" s="6" t="s">
+        <v>428</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>9</v>
@@ -5078,43 +4551,40 @@
       <c r="E63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="I63" s="9">
+      <c r="F63" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H63" s="9">
         <v>5</v>
       </c>
-      <c r="J63" s="8">
+      <c r="I63" s="8">
         <v>43090</v>
       </c>
+      <c r="J63">
+        <v>122000</v>
+      </c>
       <c r="K63">
-        <v>122000</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="M63">
         <v>26000000</v>
       </c>
-      <c r="O63" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N63" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>261</v>
+      <c r="B64" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>153</v>
@@ -5125,43 +4595,40 @@
       <c r="E64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="I64" s="9">
+      <c r="F64" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H64" s="9">
         <v>5</v>
       </c>
-      <c r="J64" s="8">
+      <c r="I64" s="8">
         <v>43246</v>
       </c>
+      <c r="J64">
+        <v>124000</v>
+      </c>
       <c r="K64">
-        <v>124000</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="M64">
         <v>73000000</v>
       </c>
-      <c r="O64" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>262</v>
+      <c r="B65" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>154</v>
@@ -5172,43 +4639,40 @@
       <c r="E65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="I65" s="9">
+      <c r="F65" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" s="9">
         <v>3</v>
       </c>
-      <c r="J65" s="8">
+      <c r="I65" s="8">
         <v>44083</v>
       </c>
+      <c r="J65">
+        <v>126000</v>
+      </c>
       <c r="K65">
-        <v>126000</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="M65">
         <v>44000000</v>
       </c>
-      <c r="O65" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N65" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>208</v>
+      <c r="B66" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>155</v>
@@ -5219,43 +4683,40 @@
       <c r="E66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="I66" s="9">
+      <c r="F66" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="H66" s="9">
         <v>1</v>
       </c>
-      <c r="J66" s="8">
+      <c r="I66" s="8">
         <v>43001</v>
       </c>
+      <c r="J66">
+        <v>128000</v>
+      </c>
       <c r="K66">
-        <v>128000</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="M66">
         <v>26000000</v>
       </c>
-      <c r="O66" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N66" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>209</v>
+      <c r="B67" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>156</v>
@@ -5266,43 +4727,40 @@
       <c r="E67" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I67" s="9">
+      <c r="F67" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H67" s="9">
         <v>3</v>
       </c>
-      <c r="J67" s="8">
+      <c r="I67" s="8">
         <v>43459</v>
       </c>
+      <c r="J67">
+        <v>130000</v>
+      </c>
       <c r="K67">
-        <v>130000</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M67">
         <v>35000000</v>
       </c>
-      <c r="O67" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N67" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>210</v>
+      <c r="B68" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>157</v>
@@ -5313,43 +4771,40 @@
       <c r="E68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="I68" s="9">
+      <c r="F68" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H68" s="9">
         <v>3</v>
       </c>
-      <c r="J68" s="8">
+      <c r="I68" s="8">
         <v>43570</v>
       </c>
+      <c r="J68">
+        <v>132000</v>
+      </c>
       <c r="K68">
-        <v>132000</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="M68">
         <v>35000000</v>
       </c>
-      <c r="O68" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N68" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>211</v>
+      <c r="B69" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>158</v>
@@ -5360,43 +4815,40 @@
       <c r="E69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="I69" s="9">
+      <c r="F69" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H69" s="9">
         <v>1</v>
       </c>
-      <c r="J69" s="8">
+      <c r="I69" s="8">
         <v>43032</v>
       </c>
+      <c r="J69">
+        <v>134000</v>
+      </c>
       <c r="K69">
-        <v>134000</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="M69">
         <v>35000000</v>
       </c>
-      <c r="O69" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N69" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>212</v>
+      <c r="B70" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>159</v>
@@ -5407,43 +4859,40 @@
       <c r="E70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="I70" s="9">
+      <c r="F70" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H70" s="9">
         <v>1</v>
       </c>
-      <c r="J70" s="8">
+      <c r="I70" s="8">
         <v>43648</v>
       </c>
+      <c r="J70">
+        <v>136000</v>
+      </c>
       <c r="K70">
-        <v>136000</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="M70">
         <v>25000000</v>
       </c>
-      <c r="O70" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N70" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>214</v>
+      <c r="B71" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>160</v>
@@ -5454,43 +4903,40 @@
       <c r="E71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="I71" s="9">
+      <c r="F71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H71" s="9">
         <v>3</v>
       </c>
-      <c r="J71" s="8">
+      <c r="I71" s="8">
         <v>43888</v>
       </c>
+      <c r="J71">
+        <v>138000</v>
+      </c>
       <c r="K71">
-        <v>138000</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="M71">
         <v>30000000</v>
       </c>
-      <c r="O71" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N71" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>215</v>
+      <c r="B72" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>161</v>
@@ -5501,43 +4947,40 @@
       <c r="E72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I72" s="9">
+      <c r="F72" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H72" s="9">
         <v>5</v>
       </c>
-      <c r="J72" s="8">
+      <c r="I72" s="8">
         <v>43816</v>
       </c>
+      <c r="J72">
+        <v>140000</v>
+      </c>
       <c r="K72">
-        <v>140000</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="M72">
         <v>32000000</v>
       </c>
-      <c r="O72" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N72" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>216</v>
+      <c r="B73" s="6" t="s">
+        <v>438</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>162</v>
@@ -5548,43 +4991,40 @@
       <c r="E73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="I73" s="9">
+      <c r="F73" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H73" s="9">
         <v>3</v>
       </c>
-      <c r="J73" s="8">
+      <c r="I73" s="8">
         <v>44217</v>
       </c>
+      <c r="J73">
+        <v>142000</v>
+      </c>
       <c r="K73">
-        <v>142000</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="M73">
         <v>26000000</v>
       </c>
-      <c r="O73" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N73" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>217</v>
+      <c r="B74" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>163</v>
@@ -5595,43 +5035,40 @@
       <c r="E74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="G74" s="4" t="s">
+      <c r="F74" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H74" s="9">
+        <v>3</v>
+      </c>
+      <c r="I74" s="8">
+        <v>44235</v>
+      </c>
+      <c r="J74">
+        <v>144000</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="I74" s="9">
-        <v>3</v>
-      </c>
-      <c r="J74" s="8">
-        <v>44235</v>
-      </c>
-      <c r="K74">
-        <v>144000</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="N74">
+      <c r="M74">
         <v>32000000</v>
       </c>
-      <c r="O74" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N74" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>218</v>
+      <c r="B75" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>164</v>
@@ -5642,43 +5079,40 @@
       <c r="E75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="G75" s="4" t="s">
+      <c r="F75" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H75" s="9">
+        <v>5</v>
+      </c>
+      <c r="I75" s="8">
+        <v>43347</v>
+      </c>
+      <c r="J75">
+        <v>146000</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="H75" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I75" s="9">
-        <v>5</v>
-      </c>
-      <c r="J75" s="8">
-        <v>43347</v>
-      </c>
-      <c r="K75">
-        <v>146000</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="N75">
+      <c r="M75">
         <v>35000000</v>
       </c>
-      <c r="O75" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N75" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>219</v>
+      <c r="B76" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>165</v>
@@ -5689,43 +5123,40 @@
       <c r="E76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="G76" s="4" t="s">
+      <c r="F76" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H76" s="9">
+        <v>3</v>
+      </c>
+      <c r="I76" s="8">
+        <v>42961</v>
+      </c>
+      <c r="J76">
+        <v>148000</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="H76" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="I76" s="9">
-        <v>3</v>
-      </c>
-      <c r="J76" s="8">
-        <v>42961</v>
-      </c>
-      <c r="K76">
-        <v>148000</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="N76">
+      <c r="M76">
         <v>48000000</v>
       </c>
-      <c r="O76" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N76" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>220</v>
+      <c r="B77" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>166</v>
@@ -5736,43 +5167,40 @@
       <c r="E77" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="G77" s="4" t="s">
+      <c r="F77" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H77" s="9">
+        <v>1</v>
+      </c>
+      <c r="I77" s="8">
+        <v>43184</v>
+      </c>
+      <c r="J77">
+        <v>150000</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="I77" s="9">
-        <v>1</v>
-      </c>
-      <c r="J77" s="8">
-        <v>43184</v>
-      </c>
-      <c r="K77">
-        <v>150000</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="N77">
+      <c r="M77">
         <v>49000000</v>
       </c>
-      <c r="O77" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N77" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>221</v>
+      <c r="B78" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>167</v>
@@ -5783,43 +5211,40 @@
       <c r="E78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="G78" s="4" t="s">
+      <c r="F78" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H78" s="9">
+        <v>5</v>
+      </c>
+      <c r="I78" s="8">
+        <v>44365</v>
+      </c>
+      <c r="J78">
+        <v>152000</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="H78" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I78" s="9">
-        <v>5</v>
-      </c>
-      <c r="J78" s="8">
-        <v>44365</v>
-      </c>
-      <c r="K78">
-        <v>152000</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="N78">
+      <c r="M78">
         <v>50000000</v>
       </c>
-      <c r="O78" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>222</v>
+      <c r="B79" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>168</v>
@@ -5830,43 +5255,40 @@
       <c r="E79" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="G79" s="4" t="s">
+      <c r="F79" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="H79" s="9">
+        <v>5</v>
+      </c>
+      <c r="I79" s="8">
+        <v>43847</v>
+      </c>
+      <c r="J79">
+        <v>154000</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="I79" s="9">
-        <v>5</v>
-      </c>
-      <c r="J79" s="8">
-        <v>43847</v>
-      </c>
-      <c r="K79">
-        <v>154000</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="N79">
+      <c r="M79">
         <v>35000000</v>
       </c>
-      <c r="O79" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N79" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>223</v>
+      <c r="B80" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>169</v>
@@ -5877,43 +5299,40 @@
       <c r="E80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="G80" s="4" t="s">
+      <c r="F80" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H80" s="9">
+        <v>3</v>
+      </c>
+      <c r="I80" s="8">
+        <v>44024</v>
+      </c>
+      <c r="J80">
+        <v>156000</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="H80" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="I80" s="9">
-        <v>3</v>
-      </c>
-      <c r="J80" s="8">
-        <v>44024</v>
-      </c>
-      <c r="K80">
-        <v>156000</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="N80">
+      <c r="M80">
         <v>35000000</v>
       </c>
-      <c r="O80" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N80" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>224</v>
+      <c r="B81" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>170</v>
@@ -5924,43 +5343,40 @@
       <c r="E81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="G81" s="4" t="s">
+      <c r="F81" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H81" s="9">
+        <v>1</v>
+      </c>
+      <c r="I81" s="8">
+        <v>43434</v>
+      </c>
+      <c r="J81">
+        <v>158000</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="I81" s="9">
-        <v>1</v>
-      </c>
-      <c r="J81" s="8">
-        <v>43434</v>
-      </c>
-      <c r="K81">
-        <v>158000</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="N81">
+      <c r="M81">
         <v>40000000</v>
       </c>
-      <c r="O81" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N81" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>225</v>
+      <c r="B82" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>171</v>
@@ -5971,43 +5387,40 @@
       <c r="E82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="G82" s="4" t="s">
+      <c r="F82" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H82" s="9">
+        <v>3</v>
+      </c>
+      <c r="I82" s="8">
+        <v>43720</v>
+      </c>
+      <c r="J82">
+        <v>160000</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="H82" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="I82" s="9">
-        <v>3</v>
-      </c>
-      <c r="J82" s="8">
-        <v>43720</v>
-      </c>
-      <c r="K82">
-        <v>160000</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="N82">
+      <c r="M82">
         <v>36000000</v>
       </c>
-      <c r="O82" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N82" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>226</v>
+      <c r="B83" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>172</v>
@@ -6018,43 +5431,40 @@
       <c r="E83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="G83" s="4" t="s">
+      <c r="F83" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H83" s="9">
+        <v>3</v>
+      </c>
+      <c r="I83" s="8">
+        <v>43043</v>
+      </c>
+      <c r="J83">
+        <v>162000</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="I83" s="9">
-        <v>3</v>
-      </c>
-      <c r="J83" s="8">
-        <v>43043</v>
-      </c>
-      <c r="K83">
-        <v>162000</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="N83">
+      <c r="M83">
         <v>42000000</v>
       </c>
-      <c r="O83" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N83" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>227</v>
+      <c r="B84" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>173</v>
@@ -6065,43 +5475,40 @@
       <c r="E84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="G84" s="4" t="s">
+      <c r="F84" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H84" s="9">
+        <v>5</v>
+      </c>
+      <c r="I84" s="8">
+        <v>43975</v>
+      </c>
+      <c r="J84">
+        <v>164000</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="I84" s="9">
-        <v>5</v>
-      </c>
-      <c r="J84" s="8">
-        <v>43975</v>
-      </c>
-      <c r="K84">
-        <v>164000</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="N84">
+      <c r="M84">
         <v>41000000</v>
       </c>
-      <c r="O84" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N84" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>228</v>
+      <c r="B85" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>174</v>
@@ -6112,43 +5519,40 @@
       <c r="E85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="G85" s="4" t="s">
+      <c r="F85" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="H85" s="9">
+        <v>3</v>
+      </c>
+      <c r="I85" s="8">
+        <v>44278</v>
+      </c>
+      <c r="J85">
+        <v>166000</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="I85" s="9">
-        <v>3</v>
-      </c>
-      <c r="J85" s="8">
-        <v>44278</v>
-      </c>
-      <c r="K85">
-        <v>166000</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="N85">
+      <c r="M85">
         <v>43000000</v>
       </c>
-      <c r="O85" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N85" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>229</v>
+      <c r="B86" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>175</v>
@@ -6159,43 +5563,40 @@
       <c r="E86" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="G86" s="4" t="s">
+      <c r="F86" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H86" s="9">
+        <v>3</v>
+      </c>
+      <c r="I86" s="8">
+        <v>43015</v>
+      </c>
+      <c r="J86">
+        <v>168000</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="I86" s="9">
-        <v>3</v>
-      </c>
-      <c r="J86" s="8">
-        <v>43015</v>
-      </c>
-      <c r="K86">
-        <v>168000</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="N86">
+      <c r="M86">
         <v>35000000</v>
       </c>
-      <c r="O86" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N86" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>230</v>
+      <c r="B87" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>176</v>
@@ -6206,43 +5607,40 @@
       <c r="E87" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="G87" s="4" t="s">
+      <c r="F87" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H87" s="9">
+        <v>5</v>
+      </c>
+      <c r="I87" s="8">
+        <v>44069</v>
+      </c>
+      <c r="J87">
+        <v>170000</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="H87" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="I87" s="9">
-        <v>5</v>
-      </c>
-      <c r="J87" s="8">
-        <v>44069</v>
-      </c>
-      <c r="K87">
-        <v>170000</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="N87">
+      <c r="M87">
         <v>32000000</v>
       </c>
-      <c r="O87" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N87" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>231</v>
+      <c r="B88" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>177</v>
@@ -6253,43 +5651,40 @@
       <c r="E88" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="G88" s="4" t="s">
+      <c r="F88" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H88" s="9">
+        <v>5</v>
+      </c>
+      <c r="I88" s="8">
+        <v>43636</v>
+      </c>
+      <c r="J88">
+        <v>172000</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="H88" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="I88" s="9">
-        <v>5</v>
-      </c>
-      <c r="J88" s="8">
-        <v>43636</v>
-      </c>
-      <c r="K88">
-        <v>172000</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="N88">
+      <c r="M88">
         <v>38000000</v>
       </c>
-      <c r="O88" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>232</v>
+      <c r="B89" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>178</v>
@@ -6300,43 +5695,40 @@
       <c r="E89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="G89" s="4" t="s">
+      <c r="F89" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H89" s="9">
+        <v>5</v>
+      </c>
+      <c r="I89" s="8">
+        <v>43232</v>
+      </c>
+      <c r="J89">
+        <v>174000</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="H89" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="I89" s="9">
-        <v>5</v>
-      </c>
-      <c r="J89" s="8">
-        <v>43232</v>
-      </c>
-      <c r="K89">
-        <v>174000</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="N89">
+      <c r="M89">
         <v>35000000</v>
       </c>
-      <c r="O89" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N89" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>233</v>
+      <c r="B90" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>179</v>
@@ -6347,43 +5739,40 @@
       <c r="E90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F90" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="G90" s="4" t="s">
+      <c r="F90" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H90" s="9">
+        <v>3</v>
+      </c>
+      <c r="I90" s="8">
+        <v>43805</v>
+      </c>
+      <c r="J90">
+        <v>176000</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="H90" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I90" s="9">
-        <v>3</v>
-      </c>
-      <c r="J90" s="8">
-        <v>43805</v>
-      </c>
-      <c r="K90">
-        <v>176000</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="N90">
+      <c r="M90">
         <v>32000000</v>
       </c>
-      <c r="O90" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N90" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>234</v>
+      <c r="B91" s="6" t="s">
+        <v>456</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>180</v>
@@ -6394,43 +5783,40 @@
       <c r="E91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="G91" s="4" t="s">
+      <c r="F91" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H91" s="9">
+        <v>1</v>
+      </c>
+      <c r="I91" s="8">
+        <v>43022</v>
+      </c>
+      <c r="J91">
+        <v>178000</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="H91" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="I91" s="9">
-        <v>1</v>
-      </c>
-      <c r="J91" s="8">
-        <v>43022</v>
-      </c>
-      <c r="K91">
-        <v>178000</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="N91">
+      <c r="M91">
         <v>38000000</v>
       </c>
-      <c r="O91" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N91" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>235</v>
+      <c r="B92" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>181</v>
@@ -6441,43 +5827,40 @@
       <c r="E92" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="G92" s="4" t="s">
+      <c r="F92" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H92" s="9">
+        <v>3</v>
+      </c>
+      <c r="I92" s="8">
+        <v>43751</v>
+      </c>
+      <c r="J92">
+        <v>180000</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="H92" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="I92" s="9">
-        <v>3</v>
-      </c>
-      <c r="J92" s="8">
-        <v>43751</v>
-      </c>
-      <c r="K92">
-        <v>180000</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="N92">
+      <c r="M92">
         <v>35000000</v>
       </c>
-      <c r="O92" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N92" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>236</v>
+      <c r="B93" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>182</v>
@@ -6488,43 +5871,40 @@
       <c r="E93" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="G93" s="4" t="s">
+      <c r="F93" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H93" s="9">
+        <v>3</v>
+      </c>
+      <c r="I93" s="8">
+        <v>44273</v>
+      </c>
+      <c r="J93">
+        <v>182000</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="H93" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I93" s="9">
-        <v>3</v>
-      </c>
-      <c r="J93" s="8">
-        <v>44273</v>
-      </c>
-      <c r="K93">
-        <v>182000</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="N93">
+      <c r="M93">
         <v>32000000</v>
       </c>
-      <c r="O93" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N93" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>237</v>
+      <c r="B94" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>183</v>
@@ -6535,43 +5915,40 @@
       <c r="E94" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="G94" s="4" t="s">
+      <c r="F94" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H94" s="9">
+        <v>5</v>
+      </c>
+      <c r="I94" s="8">
+        <v>43853</v>
+      </c>
+      <c r="J94">
+        <v>184000</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="H94" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="I94" s="9">
-        <v>5</v>
-      </c>
-      <c r="J94" s="8">
-        <v>43853</v>
-      </c>
-      <c r="K94">
-        <v>184000</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="N94">
+      <c r="M94">
         <v>38000000</v>
       </c>
-      <c r="O94" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N94" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>238</v>
+      <c r="B95" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>184</v>
@@ -6582,43 +5959,40 @@
       <c r="E95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="G95" s="4" t="s">
+      <c r="F95" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H95" s="9">
+        <v>3</v>
+      </c>
+      <c r="I95" s="8">
+        <v>43170</v>
+      </c>
+      <c r="J95">
+        <v>186000</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="H95" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="I95" s="9">
-        <v>3</v>
-      </c>
-      <c r="J95" s="8">
-        <v>43170</v>
-      </c>
-      <c r="K95">
-        <v>186000</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="N95">
+      <c r="M95">
         <v>35000000</v>
       </c>
-      <c r="O95" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N95" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>239</v>
+      <c r="B96" s="6" t="s">
+        <v>461</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>185</v>
@@ -6629,43 +6003,40 @@
       <c r="E96" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="G96" s="4" t="s">
+      <c r="F96" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H96" s="9">
+        <v>3</v>
+      </c>
+      <c r="I96" s="8">
+        <v>43006</v>
+      </c>
+      <c r="J96">
+        <v>188000</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="H96" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I96" s="9">
-        <v>3</v>
-      </c>
-      <c r="J96" s="8">
-        <v>43006</v>
-      </c>
-      <c r="K96">
-        <v>188000</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="N96">
+      <c r="M96">
         <v>32000000</v>
       </c>
-      <c r="O96" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N96" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>240</v>
+      <c r="B97" s="6" t="s">
+        <v>462</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>186</v>
@@ -6676,43 +6047,40 @@
       <c r="E97" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="G97" s="4" t="s">
+      <c r="F97" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="H97" s="9">
+        <v>5</v>
+      </c>
+      <c r="I97" s="8">
+        <v>43481</v>
+      </c>
+      <c r="J97">
+        <v>190000</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="H97" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="I97" s="9">
-        <v>5</v>
-      </c>
-      <c r="J97" s="8">
-        <v>43481</v>
-      </c>
-      <c r="K97">
-        <v>190000</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="N97">
+      <c r="M97">
         <v>35000000</v>
       </c>
-      <c r="O97" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>241</v>
+      <c r="B98" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>187</v>
@@ -6723,43 +6091,40 @@
       <c r="E98" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="I98" s="9">
+      <c r="F98" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H98" s="9">
         <v>5</v>
       </c>
-      <c r="J98" s="8">
+      <c r="I98" s="8">
         <v>43251</v>
       </c>
+      <c r="J98">
+        <v>192000</v>
+      </c>
       <c r="K98">
-        <v>192000</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="M98">
         <v>38000000</v>
       </c>
-      <c r="O98" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N98" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>242</v>
+      <c r="B99" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>188</v>
@@ -6770,43 +6135,40 @@
       <c r="E99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="I99" s="9">
+      <c r="F99" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="H99" s="9">
         <v>5</v>
       </c>
-      <c r="J99" s="8">
+      <c r="I99" s="8">
         <v>44371</v>
       </c>
+      <c r="J99">
+        <v>194000</v>
+      </c>
       <c r="K99">
-        <v>194000</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M99">
         <v>38000000</v>
       </c>
-      <c r="O99" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N99" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>243</v>
+      <c r="B100" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>189</v>
@@ -6817,43 +6179,40 @@
       <c r="E100" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F100" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G100" s="4" t="s">
+      <c r="F100" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H100" s="9">
+        <v>1</v>
+      </c>
+      <c r="I100" s="8">
+        <v>43864</v>
+      </c>
+      <c r="J100">
+        <v>196000</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="M100">
+        <v>38000000</v>
+      </c>
+      <c r="N100" t="s">
         <v>361</v>
       </c>
-      <c r="H100" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="I100" s="9">
-        <v>1</v>
-      </c>
-      <c r="J100" s="8">
-        <v>43864</v>
-      </c>
-      <c r="K100">
-        <v>196000</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="N100">
-        <v>38000000</v>
-      </c>
-      <c r="O100" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>244</v>
+      <c r="B101" s="6" t="s">
+        <v>466</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>190</v>
@@ -6864,159 +6223,147 @@
       <c r="E101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="I101" s="9">
+      <c r="F101" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H101" s="9">
         <v>3</v>
       </c>
-      <c r="J101" s="8">
+      <c r="I101" s="8">
         <v>43678</v>
       </c>
+      <c r="J101">
+        <v>198000</v>
+      </c>
       <c r="K101">
-        <v>198000</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="M101">
         <v>32000000</v>
       </c>
-      <c r="O101" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N101" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="13"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="8"/>
-      <c r="M102" s="11"/>
-    </row>
-    <row r="103" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H102" s="4"/>
+      <c r="I102" s="8"/>
+      <c r="L102" s="11"/>
+    </row>
+    <row r="103" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="14"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="J103" s="8"/>
-      <c r="M103" s="11"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I103" s="8"/>
+      <c r="L103" s="11"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="15"/>
+      <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="J104" s="8"/>
-      <c r="M104" s="11"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I104" s="8"/>
+      <c r="L104" s="11"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="15"/>
+      <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="J105" s="8"/>
-      <c r="M105" s="11"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I105" s="8"/>
+      <c r="L105" s="11"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="15"/>
+      <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="J106" s="8"/>
-      <c r="M106" s="11"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I106" s="8"/>
+      <c r="L106" s="11"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="15"/>
+      <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="J107" s="8"/>
-      <c r="M107" s="11"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J108" s="8"/>
-      <c r="M108" s="11"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M109" s="11"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M110" s="11"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M111" s="11"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M112" s="11"/>
-    </row>
-    <row r="113" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M113" s="11"/>
-    </row>
-    <row r="114" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M114" s="11"/>
-    </row>
-    <row r="115" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M115" s="11"/>
-    </row>
-    <row r="116" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M116" s="11"/>
-    </row>
-    <row r="117" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M117" s="11"/>
-    </row>
-    <row r="118" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M118" s="11"/>
-    </row>
-    <row r="119" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M119" s="11"/>
-    </row>
-    <row r="120" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M120" s="11"/>
-    </row>
-    <row r="121" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M121" s="11"/>
+      <c r="I107" s="8"/>
+      <c r="L107" s="11"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I108" s="8"/>
+      <c r="L108" s="11"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L109" s="11"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L110" s="11"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L111" s="11"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L112" s="11"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L113" s="11"/>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L114" s="11"/>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L115" s="11"/>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L116" s="11"/>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L117" s="11"/>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L118" s="11"/>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L119" s="11"/>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L120" s="11"/>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L121" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F59" r:id="rId1" xr:uid="{99183767-DB5B-41BE-B4D7-19E5EDFB0637}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/2. 개인회원.xlsx
+++ b/Data/2. 개인회원.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\학교\3학년(4.5)(2023)\2학기\데이터베이스프로그래밍\과제\팀프로젝트\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고병철\Desktop\GitKraken\DatabaseProgrammingTeamProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B05D0D-AD15-4D9C-9944-507A988E9C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F15ED4-CFF6-4E2F-B2E4-5F70558BC79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DCFF9F2-15FC-4C18-81A5-F7FD688D881C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="468">
   <si>
     <t>회원ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,9 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김지우</t>
-  </si>
-  <si>
     <t>seoyeonjung_07</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -682,18 +679,6 @@
   </si>
   <si>
     <t>김민호</t>
-  </si>
-  <si>
-    <t>이승준</t>
-  </si>
-  <si>
-    <t>박윤서</t>
-  </si>
-  <si>
-    <t>정가현</t>
-  </si>
-  <si>
-    <t>최다인</t>
   </si>
   <si>
     <t>da_eun.kim96</t>
@@ -1576,6 +1561,30 @@
   </si>
   <si>
     <t>abcd1333</t>
+  </si>
+  <si>
+    <t>최다인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정가현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박윤서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박준호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2003,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468B34A-F573-43F2-83C7-0B79BC91E257}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2028,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -2043,28 +2052,28 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -2072,7 +2081,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -2084,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H2" s="9">
         <v>1</v>
@@ -2107,10 +2116,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>466</v>
       </c>
       <c r="D3" s="7">
         <v>33120</v>
@@ -2119,10 +2128,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H3" s="9">
         <v>3</v>
@@ -2137,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M3">
         <v>90000000</v>
       </c>
       <c r="N3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -2151,10 +2160,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
       <c r="D4" s="7">
         <v>32477</v>
@@ -2163,10 +2172,10 @@
         <v>7</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
@@ -2181,24 +2190,24 @@
         <v>0</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M4">
         <v>46000000</v>
       </c>
       <c r="N4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="7">
         <v>34933</v>
@@ -2207,10 +2216,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H5" s="9">
         <v>5</v>
@@ -2225,24 +2234,24 @@
         <v>0</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M5">
         <v>38000000</v>
       </c>
       <c r="N5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
         <v>36230</v>
@@ -2251,10 +2260,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H6" s="9">
         <v>5</v>
@@ -2269,24 +2278,24 @@
         <v>0</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M6">
         <v>24000000</v>
       </c>
       <c r="N6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
         <v>31930</v>
@@ -2295,10 +2304,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H7" s="9">
         <v>1</v>
@@ -2313,24 +2322,24 @@
         <v>0</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M7">
         <v>40000000</v>
       </c>
       <c r="N7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
         <v>33983</v>
@@ -2339,10 +2348,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H8" s="9">
         <v>3</v>
@@ -2357,24 +2366,24 @@
         <v>0</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M8">
         <v>24000000</v>
       </c>
       <c r="N8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
         <v>32788</v>
@@ -2383,10 +2392,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H9" s="9">
         <v>3</v>
@@ -2401,24 +2410,24 @@
         <v>0</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M9">
         <v>35000000</v>
       </c>
       <c r="N9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
         <v>34687</v>
@@ -2427,10 +2436,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H10" s="9">
         <v>1</v>
@@ -2445,24 +2454,24 @@
         <v>0</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M10">
         <v>41000000</v>
       </c>
       <c r="N10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
         <v>35273</v>
@@ -2471,10 +2480,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H11" s="9">
         <v>5</v>
@@ -2489,24 +2498,24 @@
         <v>0</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M11">
         <v>30000000</v>
       </c>
       <c r="N11" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7">
         <v>31142</v>
@@ -2515,10 +2524,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -2533,24 +2542,24 @@
         <v>0</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M12">
         <v>65000000</v>
       </c>
       <c r="N12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
         <v>35924</v>
@@ -2559,10 +2568,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
@@ -2577,24 +2586,24 @@
         <v>0</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M13">
         <v>76000000</v>
       </c>
       <c r="N13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
         <v>33289</v>
@@ -2603,10 +2612,10 @@
         <v>7</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H14" s="9">
         <v>3</v>
@@ -2621,24 +2630,24 @@
         <v>0</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M14">
         <v>46000000</v>
       </c>
       <c r="N14" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
         <v>31717</v>
@@ -2647,10 +2656,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H15" s="9">
         <v>3</v>
@@ -2665,24 +2674,24 @@
         <v>0</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M15">
         <v>24000000</v>
       </c>
       <c r="N15" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
         <v>33862</v>
@@ -2691,10 +2700,10 @@
         <v>7</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H16" s="9">
         <v>3</v>
@@ -2709,24 +2718,24 @@
         <v>0</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M16">
         <v>32000000</v>
       </c>
       <c r="N16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
         <v>35607</v>
@@ -2735,10 +2744,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H17" s="9">
         <v>3</v>
@@ -2753,24 +2762,24 @@
         <v>0</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M17">
         <v>34000000</v>
       </c>
       <c r="N17" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
         <v>32210</v>
@@ -2779,10 +2788,10 @@
         <v>7</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H18" s="9">
         <v>1</v>
@@ -2797,24 +2806,24 @@
         <v>0</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M18">
         <v>26000000</v>
       </c>
       <c r="N18" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
         <v>34307</v>
@@ -2823,10 +2832,10 @@
         <v>10</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H19" s="9">
         <v>5</v>
@@ -2841,24 +2850,24 @@
         <v>0</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M19">
         <v>24000000</v>
       </c>
       <c r="N19" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="7">
         <v>31976</v>
@@ -2867,10 +2876,10 @@
         <v>10</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H20" s="9">
         <v>5</v>
@@ -2885,24 +2894,24 @@
         <v>0</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M20">
         <v>37000000</v>
       </c>
       <c r="N20" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7">
         <v>34454</v>
@@ -2911,10 +2920,10 @@
         <v>7</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H21" s="9">
         <v>5</v>
@@ -2929,24 +2938,24 @@
         <v>0</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M21">
         <v>42000000</v>
       </c>
       <c r="N21" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
         <v>35074</v>
@@ -2955,10 +2964,10 @@
         <v>10</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H22" s="9">
         <v>1</v>
@@ -2973,24 +2982,24 @@
         <v>0</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M22">
         <v>38000000</v>
       </c>
       <c r="N22" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7">
         <v>31271</v>
@@ -2999,10 +3008,10 @@
         <v>7</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H23" s="9">
         <v>3</v>
@@ -3017,24 +3026,24 @@
         <v>0</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M23">
         <v>36000000</v>
       </c>
       <c r="N23" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7">
         <v>33202</v>
@@ -3043,10 +3052,10 @@
         <v>10</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H24" s="9">
         <v>1</v>
@@ -3061,24 +3070,24 @@
         <v>0</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M24">
         <v>40000000</v>
       </c>
       <c r="N24" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
         <v>32536</v>
@@ -3087,10 +3096,10 @@
         <v>7</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H25" s="9">
         <v>1</v>
@@ -3105,24 +3114,24 @@
         <v>0</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M25">
         <v>35000000</v>
       </c>
       <c r="N25" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="7">
         <v>34993</v>
@@ -3131,10 +3140,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H26" s="9">
         <v>3</v>
@@ -3149,24 +3158,24 @@
         <v>0</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M26">
         <v>35000000</v>
       </c>
       <c r="N26" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="7">
         <v>35491</v>
@@ -3175,10 +3184,10 @@
         <v>10</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H27" s="9">
         <v>3</v>
@@ -3195,13 +3204,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="7">
         <v>31586</v>
@@ -3210,10 +3219,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H28" s="9">
         <v>3</v>
@@ -3230,13 +3239,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7">
         <v>33487</v>
@@ -3245,10 +3254,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H29" s="9">
         <v>5</v>
@@ -3265,13 +3274,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="7">
         <v>32494</v>
@@ -3280,10 +3289,10 @@
         <v>7</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H30" s="9">
         <v>5</v>
@@ -3300,13 +3309,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="7">
         <v>34179</v>
@@ -3315,10 +3324,10 @@
         <v>10</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H31" s="9">
         <v>1</v>
@@ -3335,13 +3344,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="7">
         <v>36281</v>
@@ -3350,10 +3359,10 @@
         <v>7</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H32" s="9">
         <v>3</v>
@@ -3370,13 +3379,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="7">
         <v>35108</v>
@@ -3385,10 +3394,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H33" s="9">
         <v>3</v>
@@ -3405,13 +3414,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="7">
         <v>31922</v>
@@ -3420,10 +3429,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H34" s="9">
         <v>1</v>
@@ -3440,13 +3449,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D35" s="7">
         <v>33885</v>
@@ -3455,10 +3464,10 @@
         <v>7</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H35" s="9">
         <v>1</v>
@@ -3475,13 +3484,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="7">
         <v>31401</v>
@@ -3490,10 +3499,10 @@
         <v>10</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
@@ -3510,13 +3519,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="7">
         <v>32965</v>
@@ -3525,10 +3534,10 @@
         <v>10</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H37" s="9">
         <v>3</v>
@@ -3545,13 +3554,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="7">
         <v>35990</v>
@@ -3560,10 +3569,10 @@
         <v>7</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H38" s="9">
         <v>5</v>
@@ -3580,13 +3589,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="7">
         <v>32555</v>
@@ -3595,10 +3604,10 @@
         <v>10</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H39" s="9">
         <v>5</v>
@@ -3615,13 +3624,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="7">
         <v>35030</v>
@@ -3630,10 +3639,10 @@
         <v>7</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H40" s="9">
         <v>1</v>
@@ -3650,13 +3659,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="7">
         <v>33459</v>
@@ -3665,10 +3674,10 @@
         <v>10</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H41" s="9">
         <v>3</v>
@@ -3685,13 +3694,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="7">
         <v>31433</v>
@@ -3700,10 +3709,10 @@
         <v>7</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H42" s="9">
         <v>3</v>
@@ -3720,13 +3729,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="7">
         <v>33707</v>
@@ -3735,10 +3744,10 @@
         <v>10</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H43" s="9">
         <v>1</v>
@@ -3755,13 +3764,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="7">
         <v>32044</v>
@@ -3770,10 +3779,10 @@
         <v>10</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H44" s="9">
         <v>1</v>
@@ -3790,13 +3799,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="7">
         <v>34491</v>
@@ -3805,10 +3814,10 @@
         <v>7</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H45" s="9">
         <v>3</v>
@@ -3825,13 +3834,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="7">
         <v>32191</v>
@@ -3840,10 +3849,10 @@
         <v>10</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H46" s="9">
         <v>5</v>
@@ -3860,13 +3869,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="7">
         <v>34303</v>
@@ -3875,10 +3884,10 @@
         <v>7</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H47" s="9">
         <v>3</v>
@@ -3895,13 +3904,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="7">
         <v>36374</v>
@@ -3910,10 +3919,10 @@
         <v>7</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H48" s="9">
         <v>1</v>
@@ -3930,13 +3939,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="7">
         <v>35139</v>
@@ -3945,10 +3954,10 @@
         <v>10</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H49" s="9">
         <v>5</v>
@@ -3965,13 +3974,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="7">
         <v>31347</v>
@@ -3980,10 +3989,10 @@
         <v>7</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H50" s="9">
         <v>3</v>
@@ -3998,24 +4007,24 @@
         <v>0</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M50">
         <v>30000000</v>
       </c>
       <c r="N50" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="7">
         <v>33002</v>
@@ -4024,10 +4033,10 @@
         <v>10</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H51" s="9">
         <v>1</v>
@@ -4042,24 +4051,24 @@
         <v>0</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M51">
         <v>110000000</v>
       </c>
       <c r="N51" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="7">
         <v>35382</v>
@@ -4068,10 +4077,10 @@
         <v>7</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H52" s="9">
         <v>3</v>
@@ -4086,24 +4095,24 @@
         <v>0</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M52">
         <v>45000000</v>
       </c>
       <c r="N52" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D53" s="7">
         <v>31730</v>
@@ -4112,10 +4121,10 @@
         <v>10</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H53" s="9">
         <v>3</v>
@@ -4130,24 +4139,24 @@
         <v>0</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M53">
         <v>24000000</v>
       </c>
       <c r="N53" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="7">
         <v>31124</v>
@@ -4156,10 +4165,10 @@
         <v>7</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H54" s="9">
         <v>1</v>
@@ -4174,24 +4183,24 @@
         <v>0</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M54">
         <v>24000000</v>
       </c>
       <c r="N54" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="7">
         <v>32339</v>
@@ -4200,10 +4209,10 @@
         <v>7</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H55" s="9">
         <v>1</v>
@@ -4218,24 +4227,24 @@
         <v>0</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M55">
         <v>24000000</v>
       </c>
       <c r="N55" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="7">
         <v>35193</v>
@@ -4244,10 +4253,10 @@
         <v>7</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H56" s="9">
         <v>3</v>
@@ -4262,24 +4271,24 @@
         <v>0</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M56">
         <v>35000000</v>
       </c>
       <c r="N56" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D57" s="7">
         <v>32816</v>
@@ -4288,10 +4297,10 @@
         <v>10</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H57" s="9">
         <v>5</v>
@@ -4306,24 +4315,24 @@
         <v>0</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M57">
         <v>25000000</v>
       </c>
       <c r="N57" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D58" s="7">
         <v>33054</v>
@@ -4332,10 +4341,10 @@
         <v>7</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H58" s="9">
         <v>3</v>
@@ -4350,24 +4359,24 @@
         <v>0</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M58">
         <v>24000000</v>
       </c>
       <c r="N58" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59" s="7">
         <v>35276</v>
@@ -4376,10 +4385,10 @@
         <v>7</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H59" s="9">
         <v>3</v>
@@ -4394,24 +4403,24 @@
         <v>0</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M59">
         <v>32000000</v>
       </c>
       <c r="N59" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" s="7">
         <v>31573</v>
@@ -4420,10 +4429,10 @@
         <v>10</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H60" s="9">
         <v>5</v>
@@ -4438,24 +4447,24 @@
         <v>0</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M60">
         <v>33000000</v>
       </c>
       <c r="N60" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D61" s="7">
         <v>31705</v>
@@ -4464,10 +4473,10 @@
         <v>7</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H61" s="9">
         <v>3</v>
@@ -4482,24 +4491,24 @@
         <v>0</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M61">
         <v>76000000</v>
       </c>
       <c r="N61" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D62" s="7">
         <v>35131</v>
@@ -4508,10 +4517,10 @@
         <v>10</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H62" s="9">
         <v>1</v>
@@ -4526,21 +4535,21 @@
         <v>0</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M62">
         <v>24000000</v>
       </c>
       <c r="N62" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>9</v>
@@ -4552,10 +4561,10 @@
         <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H63" s="9">
         <v>5</v>
@@ -4570,24 +4579,24 @@
         <v>0</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M63">
         <v>26000000</v>
       </c>
       <c r="N63" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D64" s="7">
         <v>36123</v>
@@ -4596,10 +4605,10 @@
         <v>7</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H64" s="9">
         <v>5</v>
@@ -4614,24 +4623,24 @@
         <v>0</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M64">
         <v>73000000</v>
       </c>
       <c r="N64" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D65" s="7">
         <v>32724</v>
@@ -4640,10 +4649,10 @@
         <v>7</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H65" s="9">
         <v>3</v>
@@ -4658,24 +4667,24 @@
         <v>0</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M65">
         <v>44000000</v>
       </c>
       <c r="N65" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D66" s="7">
         <v>33445</v>
@@ -4684,10 +4693,10 @@
         <v>10</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H66" s="9">
         <v>1</v>
@@ -4702,24 +4711,24 @@
         <v>0</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M66">
         <v>26000000</v>
       </c>
       <c r="N66" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D67" s="7">
         <v>32675</v>
@@ -4728,10 +4737,10 @@
         <v>10</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H67" s="9">
         <v>3</v>
@@ -4746,24 +4755,24 @@
         <v>0</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M67">
         <v>35000000</v>
       </c>
       <c r="N67" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D68" s="7">
         <v>32589</v>
@@ -4772,10 +4781,10 @@
         <v>10</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H68" s="9">
         <v>3</v>
@@ -4790,24 +4799,24 @@
         <v>0</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M68">
         <v>35000000</v>
       </c>
       <c r="N68" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69" s="7">
         <v>35019</v>
@@ -4816,10 +4825,10 @@
         <v>7</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H69" s="9">
         <v>1</v>
@@ -4834,24 +4843,24 @@
         <v>0</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M69">
         <v>35000000</v>
       </c>
       <c r="N69" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D70" s="7">
         <v>34627</v>
@@ -4860,10 +4869,10 @@
         <v>10</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H70" s="9">
         <v>1</v>
@@ -4878,24 +4887,24 @@
         <v>0</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M70">
         <v>25000000</v>
       </c>
       <c r="N70" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D71" s="7">
         <v>31416</v>
@@ -4904,10 +4913,10 @@
         <v>7</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H71" s="9">
         <v>3</v>
@@ -4922,24 +4931,24 @@
         <v>0</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M71">
         <v>30000000</v>
       </c>
       <c r="N71" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D72" s="7">
         <v>36428</v>
@@ -4948,10 +4957,10 @@
         <v>10</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H72" s="9">
         <v>5</v>
@@ -4966,24 +4975,24 @@
         <v>0</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M72">
         <v>32000000</v>
       </c>
       <c r="N72" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D73" s="7">
         <v>33002</v>
@@ -4992,10 +5001,10 @@
         <v>10</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H73" s="9">
         <v>3</v>
@@ -5010,24 +5019,24 @@
         <v>0</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M73">
         <v>26000000</v>
       </c>
       <c r="N73" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D74" s="7">
         <v>35831</v>
@@ -5036,10 +5045,10 @@
         <v>10</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H74" s="9">
         <v>3</v>
@@ -5054,24 +5063,24 @@
         <v>0</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M74">
         <v>32000000</v>
       </c>
       <c r="N74" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D75" s="7">
         <v>35854</v>
@@ -5080,10 +5089,10 @@
         <v>10</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H75" s="9">
         <v>5</v>
@@ -5098,24 +5107,24 @@
         <v>0</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M75">
         <v>35000000</v>
       </c>
       <c r="N75" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D76" s="7">
         <v>35549</v>
@@ -5124,10 +5133,10 @@
         <v>7</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H76" s="9">
         <v>3</v>
@@ -5142,24 +5151,24 @@
         <v>0</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M76">
         <v>48000000</v>
       </c>
       <c r="N76" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D77" s="7">
         <v>33991</v>
@@ -5168,10 +5177,10 @@
         <v>10</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H77" s="9">
         <v>1</v>
@@ -5186,24 +5195,24 @@
         <v>0</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M77">
         <v>49000000</v>
       </c>
       <c r="N77" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D78" s="7">
         <v>34427</v>
@@ -5212,10 +5221,10 @@
         <v>7</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H78" s="9">
         <v>5</v>
@@ -5230,24 +5239,24 @@
         <v>0</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M78">
         <v>50000000</v>
       </c>
       <c r="N78" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D79" s="7">
         <v>34323</v>
@@ -5256,10 +5265,10 @@
         <v>10</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H79" s="9">
         <v>5</v>
@@ -5274,24 +5283,24 @@
         <v>0</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M79">
         <v>35000000</v>
       </c>
       <c r="N79" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D80" s="7">
         <v>34792</v>
@@ -5300,10 +5309,10 @@
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H80" s="9">
         <v>3</v>
@@ -5318,24 +5327,24 @@
         <v>0</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M80">
         <v>35000000</v>
       </c>
       <c r="N80" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D81" s="7">
         <v>32016</v>
@@ -5344,10 +5353,10 @@
         <v>7</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H81" s="9">
         <v>1</v>
@@ -5362,24 +5371,24 @@
         <v>0</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M81">
         <v>40000000</v>
       </c>
       <c r="N81" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D82" s="7">
         <v>32265</v>
@@ -5388,10 +5397,10 @@
         <v>7</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H82" s="9">
         <v>3</v>
@@ -5406,24 +5415,24 @@
         <v>0</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M82">
         <v>36000000</v>
       </c>
       <c r="N82" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" s="7">
         <v>34035</v>
@@ -5432,10 +5441,10 @@
         <v>7</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H83" s="9">
         <v>3</v>
@@ -5450,24 +5459,24 @@
         <v>0</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M83">
         <v>42000000</v>
       </c>
       <c r="N83" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D84" s="7">
         <v>31202</v>
@@ -5476,10 +5485,10 @@
         <v>7</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H84" s="9">
         <v>5</v>
@@ -5494,24 +5503,24 @@
         <v>0</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M84">
         <v>41000000</v>
       </c>
       <c r="N84" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D85" s="7">
         <v>32147</v>
@@ -5520,10 +5529,10 @@
         <v>7</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H85" s="9">
         <v>3</v>
@@ -5538,24 +5547,24 @@
         <v>0</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M85">
         <v>43000000</v>
       </c>
       <c r="N85" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D86" s="7">
         <v>32069</v>
@@ -5564,10 +5573,10 @@
         <v>10</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H86" s="9">
         <v>3</v>
@@ -5582,24 +5591,24 @@
         <v>0</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M86">
         <v>35000000</v>
       </c>
       <c r="N86" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D87" s="7">
         <v>36379</v>
@@ -5608,10 +5617,10 @@
         <v>10</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H87" s="9">
         <v>5</v>
@@ -5626,24 +5635,24 @@
         <v>0</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M87">
         <v>32000000</v>
       </c>
       <c r="N87" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D88" s="7">
         <v>36006</v>
@@ -5652,10 +5661,10 @@
         <v>7</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H88" s="9">
         <v>5</v>
@@ -5670,24 +5679,24 @@
         <v>0</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M88">
         <v>38000000</v>
       </c>
       <c r="N88" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D89" s="7">
         <v>31673</v>
@@ -5696,10 +5705,10 @@
         <v>10</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H89" s="9">
         <v>5</v>
@@ -5714,24 +5723,24 @@
         <v>0</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M89">
         <v>35000000</v>
       </c>
       <c r="N89" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D90" s="7">
         <v>31408</v>
@@ -5740,10 +5749,10 @@
         <v>7</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H90" s="9">
         <v>3</v>
@@ -5758,24 +5767,24 @@
         <v>0</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M90">
         <v>32000000</v>
       </c>
       <c r="N90" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D91" s="7">
         <v>31672</v>
@@ -5784,10 +5793,10 @@
         <v>7</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H91" s="9">
         <v>1</v>
@@ -5802,24 +5811,24 @@
         <v>0</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M91">
         <v>38000000</v>
       </c>
       <c r="N91" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D92" s="7">
         <v>32698</v>
@@ -5828,10 +5837,10 @@
         <v>10</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H92" s="9">
         <v>3</v>
@@ -5846,24 +5855,24 @@
         <v>0</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M92">
         <v>35000000</v>
       </c>
       <c r="N92" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D93" s="7">
         <v>33761</v>
@@ -5872,10 +5881,10 @@
         <v>7</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H93" s="9">
         <v>3</v>
@@ -5890,24 +5899,24 @@
         <v>0</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M93">
         <v>32000000</v>
       </c>
       <c r="N93" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D94" s="7">
         <v>34912</v>
@@ -5916,10 +5925,10 @@
         <v>10</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H94" s="9">
         <v>5</v>
@@ -5934,24 +5943,24 @@
         <v>0</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M94">
         <v>38000000</v>
       </c>
       <c r="N94" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D95" s="7">
         <v>35007</v>
@@ -5960,10 +5969,10 @@
         <v>10</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H95" s="9">
         <v>3</v>
@@ -5978,24 +5987,24 @@
         <v>0</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M95">
         <v>35000000</v>
       </c>
       <c r="N95" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D96" s="7">
         <v>34010</v>
@@ -6004,10 +6013,10 @@
         <v>10</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H96" s="9">
         <v>3</v>
@@ -6022,24 +6031,24 @@
         <v>0</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M96">
         <v>32000000</v>
       </c>
       <c r="N96" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D97" s="7">
         <v>31704</v>
@@ -6048,10 +6057,10 @@
         <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H97" s="9">
         <v>5</v>
@@ -6066,24 +6075,24 @@
         <v>0</v>
       </c>
       <c r="L97" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M97">
         <v>35000000</v>
       </c>
       <c r="N97" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>187</v>
+        <v>465</v>
       </c>
       <c r="D98" s="7">
         <v>36023</v>
@@ -6092,10 +6101,10 @@
         <v>10</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H98" s="9">
         <v>5</v>
@@ -6110,24 +6119,24 @@
         <v>0</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M98">
         <v>38000000</v>
       </c>
       <c r="N98" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="D99" s="7">
         <v>36495</v>
@@ -6136,10 +6145,10 @@
         <v>7</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H99" s="9">
         <v>5</v>
@@ -6154,24 +6163,24 @@
         <v>0</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M99">
         <v>38000000</v>
       </c>
       <c r="N99" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>189</v>
+        <v>463</v>
       </c>
       <c r="D100" s="7">
         <v>34196</v>
@@ -6180,10 +6189,10 @@
         <v>7</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H100" s="9">
         <v>1</v>
@@ -6198,24 +6207,24 @@
         <v>0</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M100">
         <v>38000000</v>
       </c>
       <c r="N100" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>190</v>
+        <v>462</v>
       </c>
       <c r="D101" s="7">
         <v>33433</v>
@@ -6224,10 +6233,10 @@
         <v>7</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H101" s="9">
         <v>3</v>
@@ -6242,13 +6251,13 @@
         <v>0</v>
       </c>
       <c r="L101" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M101">
         <v>32000000</v>
       </c>
       <c r="N101" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
